--- a/Technology/Hardware/Axon Enterprise.xlsx
+++ b/Technology/Hardware/Axon Enterprise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF9D37B-457F-C947-A4D5-0562A42E1B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B13D83-C37F-D047-AAA5-06E7984E73A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2395,13 +2395,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>228.9999</v>
-    <v>82.494399999999999</v>
-    <v>0.95489999999999997</v>
-    <v>0.55000000000000004</v>
-    <v>2.4499999999999999E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>229.95</v>
+    <v>83.01</v>
+    <v>0.91639999999999999</v>
+    <v>-4.84</v>
+    <v>-2.3996E-2</v>
+    <v>0.44</v>
+    <v>2.235E-3</v>
     <v>USD</v>
     <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
     <v>2821</v>
@@ -2409,25 +2409,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>17800 N 85th St, SCOTTSDALE, AZ, 85255-6311 US</v>
-    <v>227.26750000000001</v>
+    <v>203.15</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45037.986639328126</v>
+    <v>45065.957046620315</v>
     <v>0</v>
-    <v>223.31010000000001</v>
-    <v>16395460000</v>
+    <v>196.21</v>
+    <v>14545062126</v>
     <v>AXON ENTERPRISE, INC.</v>
     <v>AXON ENTERPRISE, INC.</v>
-    <v>224.61</v>
-    <v>110.5491</v>
-    <v>224.47</v>
-    <v>225.02</v>
-    <v>225.02</v>
-    <v>72862230</v>
+    <v>201.89</v>
+    <v>107.1129</v>
+    <v>201.7</v>
+    <v>196.86</v>
+    <v>197.3</v>
+    <v>73885310</v>
     <v>AXON</v>
     <v>AXON ENTERPRISE, INC. (XNAS:AXON)</v>
-    <v>513210</v>
-    <v>639468</v>
+    <v>1060123</v>
+    <v>1625373</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -2592,9 +2592,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3015,10 +3015,10 @@
   <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA94" sqref="AA94"/>
+      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4523,15 +4523,15 @@
       </c>
       <c r="AF16" s="30">
         <f>AG101/Y3</f>
-        <v>13.778450083407916</v>
+        <v>12.223408947547554</v>
       </c>
       <c r="AG16" s="30">
         <f>AG101/Y28</f>
-        <v>111.42837724872399</v>
+        <v>98.8525280585025</v>
       </c>
       <c r="AH16" s="31">
         <f>AG101/Y106</f>
-        <v>91.309597402525071</v>
+        <v>81.004361385394219</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="AG95" s="38" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
-        <v>0.95489999999999997</v>
+        <v>0.91639999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="AG97" s="36">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>8.2058445000000008E-2</v>
+        <v>8.0401020000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="AG100" s="34">
         <f>AG99/AG103</f>
-        <v>4.1569408712558979E-2</v>
+        <v>4.6611298963263936E-2</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="AG101" s="39" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16395460000</v>
+        <v>14545062126</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="AG102" s="34">
         <f>AG101/AG103</f>
-        <v>0.95843059128744101</v>
+        <v>0.95338870103673601</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="AG103" s="40">
         <f>AG99+AG101</f>
-        <v>17106570000</v>
+        <v>15256172126</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="AG105" s="26">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>8.3167087091279346E-2</v>
+        <v>8.1721382333670628E-2</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11815,7 +11815,7 @@
       <c r="AC107" s="42"/>
       <c r="AD107" s="45">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>6715560784.6821947</v>
+        <v>6886725833.5047512</v>
       </c>
       <c r="AE107" s="46" t="s">
         <v>148</v>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="AD108" s="45">
         <f>AD107+AD106</f>
-        <v>7096657964.2230625</v>
+        <v>7267823013.045619</v>
       </c>
       <c r="AE108" s="46" t="s">
         <v>144</v>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="AG108" s="50">
         <f>AG105</f>
-        <v>8.3167087091279346E-2</v>
+        <v>8.1721382333670628E-2</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="AA110" s="39">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>5619265681.921566</v>
+        <v>5769702539.0922823</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11898,7 +11898,7 @@
       </c>
       <c r="AA113" s="39">
         <f>AA110+AA111-AA112</f>
-        <v>5301079681.921566</v>
+        <v>5451516539.0922823</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="AA115" s="54">
         <f>AA113/AA114</f>
-        <v>55.899033136838675</v>
+        <v>57.485365614101021</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="AA116" s="55" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price")</f>
-        <v>225.02</v>
+        <v>196.86</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="AA117" s="57">
         <f>AA115/AA116-1</f>
-        <v>-0.75158193433099874</v>
+        <v>-0.70798859283703641</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Axon Enterprise.xlsx
+++ b/Technology/Hardware/Axon Enterprise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B13D83-C37F-D047-AAA5-06E7984E73A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6242F8-CFA3-F349-A6CB-5313EEF7CD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2396,12 +2396,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.95</v>
-    <v>83.01</v>
-    <v>0.91639999999999999</v>
-    <v>-4.84</v>
-    <v>-2.3996E-2</v>
-    <v>0.44</v>
-    <v>2.235E-3</v>
+    <v>86.325000000000003</v>
+    <v>0.90900000000000003</v>
+    <v>-0.62</v>
+    <v>-3.1390000000000003E-3</v>
     <v>USD</v>
     <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
     <v>2821</v>
@@ -2409,25 +2407,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>17800 N 85th St, SCOTTSDALE, AZ, 85255-6311 US</v>
-    <v>203.15</v>
+    <v>198.59</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45065.957046620315</v>
+    <v>45099.991122430467</v>
     <v>0</v>
-    <v>196.21</v>
-    <v>14545062126</v>
+    <v>194.3398</v>
+    <v>14549495245</v>
     <v>AXON ENTERPRISE, INC.</v>
     <v>AXON ENTERPRISE, INC.</v>
-    <v>201.89</v>
-    <v>107.1129</v>
-    <v>201.7</v>
-    <v>196.86</v>
-    <v>197.3</v>
+    <v>197</v>
+    <v>104.5745</v>
+    <v>197.54</v>
+    <v>196.92</v>
     <v>73885310</v>
     <v>AXON</v>
     <v>AXON ENTERPRISE, INC. (XNAS:AXON)</v>
-    <v>1060123</v>
-    <v>1625373</v>
+    <v>66</v>
+    <v>985384</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -2459,8 +2456,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2481,7 +2476,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2498,7 +2492,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2509,16 +2503,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2584,19 +2575,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2641,9 +2626,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2651,9 +2633,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3015,10 +2994,10 @@
   <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="Z125" sqref="Z125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4523,15 +4502,15 @@
       </c>
       <c r="AF16" s="30">
         <f>AG101/Y3</f>
-        <v>12.223408947547554</v>
+        <v>12.227134461126028</v>
       </c>
       <c r="AG16" s="30">
         <f>AG101/Y28</f>
-        <v>98.8525280585025</v>
+        <v>98.882656841490018</v>
       </c>
       <c r="AH16" s="31">
         <f>AG101/Y106</f>
-        <v>81.004361385394219</v>
+        <v>81.029050312153672</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10813,7 +10792,7 @@
       </c>
       <c r="AG95" s="38" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
-        <v>0.91639999999999999</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10980,7 +10959,7 @@
       </c>
       <c r="AG97" s="36">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>8.0401020000000004E-2</v>
+        <v>8.0082449999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11229,7 +11208,7 @@
       </c>
       <c r="AG100" s="34">
         <f>AG99/AG103</f>
-        <v>4.6611298963263936E-2</v>
+        <v>4.6597758646105387E-2</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11313,7 +11292,7 @@
       </c>
       <c r="AG101" s="39" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14545062126</v>
+        <v>14549495245</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11397,7 +11376,7 @@
       </c>
       <c r="AG102" s="34">
         <f>AG101/AG103</f>
-        <v>0.95338870103673601</v>
+        <v>0.95340224135389462</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11481,7 +11460,7 @@
       </c>
       <c r="AG103" s="40">
         <f>AG99+AG101</f>
-        <v>15256172126</v>
+        <v>15260605245</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11673,7 +11652,7 @@
       </c>
       <c r="AG105" s="26">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>8.1721382333670628E-2</v>
+        <v>8.1417273423896652E-2</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11815,7 +11794,7 @@
       <c r="AC107" s="42"/>
       <c r="AD107" s="45">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>6886725833.5047512</v>
+        <v>6923847703.4222059</v>
       </c>
       <c r="AE107" s="46" t="s">
         <v>148</v>
@@ -11846,7 +11825,7 @@
       </c>
       <c r="AD108" s="45">
         <f>AD107+AD106</f>
-        <v>7267823013.045619</v>
+        <v>7304944882.9630737</v>
       </c>
       <c r="AE108" s="46" t="s">
         <v>144</v>
@@ -11856,7 +11835,7 @@
       </c>
       <c r="AG108" s="50">
         <f>AG105</f>
-        <v>8.1721382333670628E-2</v>
+        <v>8.1417273423896652E-2</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11871,7 +11850,7 @@
       </c>
       <c r="AA110" s="39">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>5769702539.0922823</v>
+        <v>5802333954.9594736</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11898,7 +11877,7 @@
       </c>
       <c r="AA113" s="39">
         <f>AA110+AA111-AA112</f>
-        <v>5451516539.0922823</v>
+        <v>5484147954.9594736</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11916,7 +11895,7 @@
       </c>
       <c r="AA115" s="54">
         <f>AA113/AA114</f>
-        <v>57.485365614101021</v>
+        <v>57.829458649163811</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11925,7 +11904,7 @@
       </c>
       <c r="AA116" s="55" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price")</f>
-        <v>196.86</v>
+        <v>196.92</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11934,7 +11913,7 @@
       </c>
       <c r="AA117" s="57">
         <f>AA115/AA116-1</f>
-        <v>-0.70798859283703641</v>
+        <v>-0.70633019170646039</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Axon Enterprise.xlsx
+++ b/Technology/Hardware/Axon Enterprise.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6242F8-CFA3-F349-A6CB-5313EEF7CD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82367D48-5A1C-4149-9085-84CC65C774B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,47 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,96 +917,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,9 +1056,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>AXON</a:t>
+              <a:t>Axon Enterprise</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1116,10 +1094,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9775206611570254E-2"/>
-          <c:y val="0.11602246293119681"/>
-          <c:w val="0.86072066115702472"/>
-          <c:h val="0.78072307331920909"/>
+          <c:x val="8.9475083056478402E-2"/>
+          <c:y val="0.1584412876108468"/>
+          <c:w val="0.84407973421926896"/>
+          <c:h val="0.62019995004159401"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1176,6 +1154,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$C$3:$Y$3</c:f>
@@ -1256,7 +1312,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B34A-9A4A-B699-D7C621A5ECBA}"/>
+              <c16:uniqueId val="{00000000-8EBC-854D-AB02-40DD56337D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1265,11 +1321,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1310,87 +1366,165 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$19:$Y$19</c:f>
+              <c:f>'Sheet 1'!$C$28:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>77918</c:v>
+                  <c:v>-473247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1063300</c:v>
+                  <c:v>515029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674444</c:v>
+                  <c:v>208903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7770166</c:v>
+                  <c:v>4453690</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31869086</c:v>
+                  <c:v>19124808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4432664</c:v>
+                  <c:v>1062857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2879703</c:v>
+                  <c:v>-4087679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25047477</c:v>
+                  <c:v>15026476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9581077</c:v>
+                  <c:v>3637041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3896332</c:v>
+                  <c:v>-1106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2198914</c:v>
+                  <c:v>-4384435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-245006</c:v>
+                  <c:v>-7039866</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29213454</c:v>
+                  <c:v>14737742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33251000</c:v>
+                  <c:v>18244000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36434000</c:v>
+                  <c:v>19918000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38678000</c:v>
+                  <c:v>19933000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34801000</c:v>
+                  <c:v>17297000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26540000</c:v>
+                  <c:v>5207000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41982000</c:v>
+                  <c:v>29205000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21895000</c:v>
+                  <c:v>882000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14043000</c:v>
+                  <c:v>-1724000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-95933000</c:v>
+                  <c:v>-60018000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220899000</c:v>
+                  <c:v>147139000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B34A-9A4A-B699-D7C621A5ECBA}"/>
+              <c16:uniqueId val="{00000001-8EBC-854D-AB02-40DD56337D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1399,11 +1533,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1444,9 +1578,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$Y$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$Y$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1524,7 +1736,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B34A-9A4A-B699-D7C621A5ECBA}"/>
+              <c16:uniqueId val="{00000002-8EBC-854D-AB02-40DD56337D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1538,11 +1750,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1512798832"/>
-        <c:axId val="1512800832"/>
+        <c:axId val="320042960"/>
+        <c:axId val="320044688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1512798832"/>
+        <c:axId val="320042960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1782,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1582,7 +1794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1512800832"/>
+        <c:crossAx val="320044688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1590,9 +1802,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1512800832"/>
+        <c:axId val="320044688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1638,7 +1851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1512798832"/>
+        <c:crossAx val="320042960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,10 +1869,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32069884818116745"/>
-          <c:y val="0.92586406153399092"/>
-          <c:w val="0.36389145571679571"/>
-          <c:h val="4.8245968429433246E-2"/>
+          <c:x val="0.31175744892353574"/>
+          <c:y val="0.88590274510558209"/>
+          <c:w val="0.37648499751484554"/>
+          <c:h val="6.5885115406701666E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2239,22 +2452,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A227FFB-CBF2-6CC9-0192-9E728216FB44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55122805-E1FF-F527-16BB-293E19A0C092}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,6 +2486,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2994,10 +3261,10 @@
   <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z125" sqref="Z125"/>
+      <selection pane="bottomRight" activeCell="AE102" sqref="AE102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3083,19 +3350,19 @@
       <c r="Y1" s="8">
         <v>2022</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2023</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2024</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2025</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2026</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3104,85 +3371,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
@@ -3196,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>3412620</v>
@@ -3267,150 +3534,150 @@
       <c r="Y3" s="1">
         <v>1189935000</v>
       </c>
-      <c r="Z3" s="28">
-        <v>1433000000</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>1725000000</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>2077000000</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>2336000000</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>2512000000</v>
+      <c r="Z3" s="24">
+        <v>1455000000</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>1740000000</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>2006000000</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>2257000000</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>2426000000</v>
       </c>
       <c r="AE3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AH3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15" t="e">
+      <c r="C4" s="63" t="e">
         <f>(C3/B3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="63">
         <f>(D3/C3)-1</f>
         <v>1.0082142166429313</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="63">
         <f>(E3/D3)-1</f>
         <v>0.43621572294226763</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="63">
         <f t="shared" ref="F4:AD4" si="0">(F3/E3)-1</f>
         <v>1.4846144538274109</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="63">
         <f t="shared" si="0"/>
         <v>1.7658343687511517</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>-0.29488074631239358</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0.41983465446235457</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="63">
         <f t="shared" si="0"/>
         <v>0.48745403926063746</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="63">
         <f t="shared" si="0"/>
         <v>-7.8247997603745345E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="63">
         <f t="shared" si="0"/>
         <v>0.12285001673209983</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="63">
         <f t="shared" si="0"/>
         <v>-0.16615138420950248</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="63">
         <f t="shared" si="0"/>
         <v>3.5636561864780036E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="63">
         <f t="shared" si="0"/>
         <v>0.27463531141110842</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="63">
         <f t="shared" si="0"/>
         <v>0.2011128482953628</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="63">
         <f t="shared" si="0"/>
         <v>0.19367196058941749</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="63">
         <f t="shared" si="0"/>
         <v>0.20280808387783011</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="63">
         <f t="shared" si="0"/>
         <v>0.35551209750773149</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="63">
         <f t="shared" si="0"/>
         <v>0.28165669443978447</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="63">
         <f t="shared" si="0"/>
         <v>0.22184538595337955</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="63">
         <f t="shared" si="0"/>
         <v>0.26374777416989637</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="63">
         <f t="shared" si="0"/>
         <v>0.28282974795614657</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="63">
         <f t="shared" si="0"/>
         <v>0.26780792448785107</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="63">
         <f t="shared" si="0"/>
         <v>0.37822699364475243</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20426745998731022</v>
+        <v>0.2227558648161454</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20376831821353814</v>
+        <v>0.19587628865979378</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20405797101449274</v>
+        <v>0.15287356321839085</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12469908521906592</v>
+        <v>0.125124626121635</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>7.5342465753424737E-2</v>
+        <v>7.4878156845370025E-2</v>
       </c>
       <c r="AE4" s="17">
         <f>(Y4+X4+W4)/3</f>
@@ -3425,7 +3692,7 @@
         <v>9.1356651132061888</v>
       </c>
       <c r="AH4" s="17">
-        <f>(Y105+X105+W105)/3</f>
+        <f>(Y106+X106+W106)/3</f>
         <v>-1.1452808264086467</v>
       </c>
     </row>
@@ -3434,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>1713586</v>
@@ -3511,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>1699034</v>
@@ -3583,16 +3850,16 @@
         <v>728638000</v>
       </c>
       <c r="AE6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AG6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AH6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AH6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -3600,7 +3867,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.49790000000000001</v>
@@ -3684,7 +3951,7 @@
         <v>0.1237</v>
       </c>
       <c r="AH7" s="20">
-        <f>Y106/Y3</f>
+        <f>Y107/Y3</f>
         <v>0.15089815830276443</v>
       </c>
     </row>
@@ -3693,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>7137</v>
@@ -3767,7 +4034,7 @@
     </row>
     <row r="9" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3866,16 +4133,16 @@
         <v>0.19648972422863434</v>
       </c>
       <c r="AE9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AH9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AH9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -3883,46 +4150,46 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1">
         <v>41301698</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1">
         <v>39329000</v>
@@ -3952,7 +4219,7 @@
         <v>453125000</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="17">
         <f>Y9</f>
@@ -3976,46 +4243,46 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1">
         <v>6025000</v>
@@ -4045,7 +4312,7 @@
         <v>52058000</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -4053,7 +4320,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>1613979</v>
@@ -4125,21 +4392,21 @@
         <v>401575000</v>
       </c>
       <c r="AE12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AG12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AG12" s="19" t="s">
+      <c r="AH12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AH12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4259,46 +4526,46 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>17650000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1">
         <v>1230000</v>
@@ -4310,10 +4577,10 @@
         <v>1861000</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1">
         <v>6051000</v>
@@ -4328,7 +4595,7 @@
         <v>9824000</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -4336,7 +4603,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>1621116</v>
@@ -4408,16 +4675,16 @@
         <v>635385000</v>
       </c>
       <c r="AE15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AG15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AG15" s="19" t="s">
+      <c r="AH15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -4425,7 +4692,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>3334702</v>
@@ -4496,29 +4763,29 @@
       <c r="Y16" s="1">
         <v>1096682000</v>
       </c>
-      <c r="AE16" s="29">
+      <c r="AE16" s="25">
         <f>(Y35+X35+W35+V35+U35)/5</f>
         <v>6.1485977241597822E-2</v>
       </c>
-      <c r="AF16" s="30">
+      <c r="AF16" s="32">
         <f>AG101/Y3</f>
         <v>12.227134461126028</v>
       </c>
-      <c r="AG16" s="30">
+      <c r="AG16" s="32">
         <f>AG101/Y28</f>
         <v>98.882656841490018</v>
       </c>
-      <c r="AH16" s="31">
-        <f>AG101/Y106</f>
+      <c r="AH16" s="33">
+        <f>AG101/Y107</f>
         <v>81.029050312153672</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>426362</v>
@@ -4542,10 +4809,10 @@
         <v>7281</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1">
         <v>170547</v>
@@ -4590,12 +4857,12 @@
         <v>103265000</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>124803</v>
@@ -4667,15 +4934,24 @@
         <v>24381000</v>
       </c>
       <c r="AE18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>77918</v>
@@ -4746,14 +5022,41 @@
       <c r="Y19" s="10">
         <v>220899000</v>
       </c>
-      <c r="AE19" s="32">
+      <c r="Z19" s="36">
+        <v>290400000</v>
+      </c>
+      <c r="AA19" s="36">
+        <v>386000000</v>
+      </c>
+      <c r="AB19" s="36">
+        <v>541000000</v>
+      </c>
+      <c r="AC19" s="36">
+        <v>665000000</v>
+      </c>
+      <c r="AD19" s="36">
+        <v>739200000</v>
+      </c>
+      <c r="AE19" s="26">
         <f>Y40-Y56-Y61</f>
         <v>-318186000</v>
       </c>
+      <c r="AF19" s="32">
+        <f>AG101/Z3</f>
+        <v>9.9996530893470794</v>
+      </c>
+      <c r="AG19" s="32">
+        <f>AG101/Z28</f>
+        <v>62.821654771157171</v>
+      </c>
+      <c r="AH19" s="33">
+        <f>AG101/Z106</f>
+        <v>113.31382589563863</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4845,16 +5148,35 @@
         <v>-7.8313750623086236</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" ref="Y20" si="5">(Y19/X19)-1</f>
+        <f t="shared" ref="Y20:AA20" si="5">(Y19/X19)-1</f>
         <v>-3.3026382996466284</v>
       </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.31462795214102379</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.32920110192837471</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" ref="AC20:AD20" si="6">(AC19/AB19)-1</f>
+        <v>0.22920517560073939</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.111578947368421</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>2.2800000000000001E-2</v>
@@ -4925,13 +5247,39 @@
       <c r="Y21" s="2">
         <v>0.18559999999999999</v>
       </c>
+      <c r="Z21" s="37">
+        <f>Z19/Z3</f>
+        <v>0.19958762886597939</v>
+      </c>
+      <c r="AA21" s="37">
+        <f t="shared" ref="AA21:AD21" si="7">AA19/AA3</f>
+        <v>0.2218390804597701</v>
+      </c>
+      <c r="AB21" s="37">
+        <f t="shared" si="7"/>
+        <v>0.26969092721834498</v>
+      </c>
+      <c r="AC21" s="37">
+        <f t="shared" si="7"/>
+        <v>0.29463890119627822</v>
+      </c>
+      <c r="AD21" s="37">
+        <f t="shared" si="7"/>
+        <v>0.30469909315746085</v>
+      </c>
+      <c r="AG21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>-46885</v>
@@ -5002,13 +5350,21 @@
       <c r="Y22" s="10">
         <v>93253000</v>
       </c>
+      <c r="AG22" s="34">
+        <f>Y98/AG101</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="35">
+        <f>Y107/AG101</f>
+        <v>1.2341252873477261E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>-1.37E-2</v>
@@ -5080,15 +5436,15 @@
         <v>7.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>-152231</v>
@@ -5157,15 +5513,15 @@
         <v>103265000</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10">
         <v>620025</v>
@@ -5234,15 +5590,15 @@
         <v>196518000</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2">
         <v>9.0499999999999997E-2</v>
@@ -5311,15 +5667,15 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1">
         <v>104996</v>
@@ -5388,12 +5744,12 @@
         <v>49379000</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>-473247</v>
@@ -5464,10 +5820,25 @@
       <c r="Y28" s="11">
         <v>147139000</v>
       </c>
+      <c r="Z28" s="38">
+        <v>231600000</v>
+      </c>
+      <c r="AA28" s="38">
+        <v>286000000</v>
+      </c>
+      <c r="AB28" s="38">
+        <v>377000000</v>
+      </c>
+      <c r="AC28" s="38">
+        <v>488000000</v>
+      </c>
+      <c r="AD28" s="38">
+        <v>552000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -5483,92 +5854,112 @@
         <v>-0.59438594719908977</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:W29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:W29" si="8">(F28/E28)-1</f>
         <v>20.319416188374507</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2941488967575205</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.94442521985057315</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.8459350599375082</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.6760410981390663</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.75795782058281658</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.0003040933550102</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3963.2269439421339</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.60564953066928817</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.0934691086449657</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23791012218832441</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1756193817145393E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.5308765940351741E-4</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.13224301409722572</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.69896513846331731</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6087958517380452</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.96979969183359016</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.9546485260770976</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="7">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="9">(X28/W28)-1</f>
         <v>33.81322505800464</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="8">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29:AD29" si="10">(Y28/X28)-1</f>
         <v>-3.4515811923089741</v>
       </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="10"/>
+        <v>0.57402184329103778</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="10"/>
+        <v>0.23488773747841107</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="10"/>
+        <v>0.31818181818181812</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="10"/>
+        <v>0.29442970822281178</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="10"/>
+        <v>0.13114754098360648</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>-0.13869999999999999</v>
@@ -5598,7 +5989,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M30" s="2">
         <v>-5.04E-2</v>
@@ -5639,13 +6030,33 @@
       <c r="Y30" s="2">
         <v>0.1237</v>
       </c>
+      <c r="Z30" s="39">
+        <f>Z28/Z3</f>
+        <v>0.15917525773195876</v>
+      </c>
+      <c r="AA30" s="39">
+        <f t="shared" ref="AA30:AD30" si="11">AA28/AA3</f>
+        <v>0.16436781609195403</v>
+      </c>
+      <c r="AB30" s="39">
+        <f t="shared" si="11"/>
+        <v>0.18793619142572282</v>
+      </c>
+      <c r="AC30" s="39">
+        <f t="shared" si="11"/>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="AD30" s="39">
+        <f t="shared" si="11"/>
+        <v>0.22753503709810388</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>-0.02</v>
@@ -5675,7 +6086,7 @@
         <v>0.06</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M31" s="12">
         <v>-7.0000000000000007E-2</v>
@@ -5716,13 +6127,28 @@
       <c r="Y31" s="12">
         <v>2.0699999999999998</v>
       </c>
+      <c r="Z31" s="40">
+        <v>3.13</v>
+      </c>
+      <c r="AA31" s="40">
+        <v>3.87</v>
+      </c>
+      <c r="AB31" s="40">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC31" s="40">
+        <v>6.6</v>
+      </c>
+      <c r="AD31" s="40">
+        <v>7.47</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>-0.02</v>
@@ -5752,7 +6178,7 @@
         <v>0.06</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M32" s="12">
         <v>-7.0000000000000007E-2</v>
@@ -5799,7 +6225,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>29825536</v>
@@ -5876,7 +6302,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>29825536</v>
@@ -5950,7 +6376,7 @@
     </row>
     <row r="35" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -5958,91 +6384,91 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:W35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:W35" si="12">(D34-C34)/C34</f>
         <v>0.2188200071240966</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.9517979223128545E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.33460612399043127</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.33737870161477096</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.9843776250774436E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2.4734091437684975E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.97156148078931E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2.4583719306679189E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.2465899284119277E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.1817549858572888E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-4.9401829166147271E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-7.9293169362535845E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.0430481562661695E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.4263554439355887E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.5321100917431194E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2.0169113071488706E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.7618051404662281E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.4659542098037032E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.6186595766720765E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.9391182645206439E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" ref="X35" si="10">(X34-W34)/W34</f>
+        <f t="shared" ref="X35" si="13">(X34-W34)/W34</f>
         <v>7.1363827652066947E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" ref="Y35" si="11">(Y34-X34)/X34</f>
+        <f t="shared" ref="Y35" si="14">(Y34-X34)/X34</f>
         <v>9.5828738045957915E-2</v>
       </c>
     </row>
@@ -6051,76 +6477,76 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="21" x14ac:dyDescent="0.25">
@@ -6128,76 +6554,76 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -6205,7 +6631,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>5636100</v>
@@ -6282,22 +6708,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>17201477</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>3557289</v>
@@ -6309,10 +6735,10 @@
         <v>2498998</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1">
         <v>5108189</v>
@@ -6336,7 +6762,7 @@
         <v>6862000</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1">
         <v>178534000</v>
@@ -6359,7 +6785,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>5636100</v>
@@ -6436,7 +6862,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>765328</v>
@@ -6513,7 +6939,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>801926</v>
@@ -6590,7 +7016,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>218486</v>
@@ -6667,7 +7093,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>7421840</v>
@@ -6744,7 +7170,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>560423</v>
@@ -6821,43 +7247,43 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1">
         <v>2235000</v>
@@ -6898,10 +7324,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>101571</v>
@@ -6975,10 +7401,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>101571</v>
@@ -7052,43 +7478,43 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1">
         <v>12023000</v>
@@ -7103,10 +7529,10 @@
         <v>234000</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1">
         <v>45499000</v>
@@ -7129,16 +7555,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>12126765</v>
@@ -7206,16 +7632,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>72416</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1">
         <v>18071815</v>
@@ -7283,7 +7709,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>632839</v>
@@ -7360,76 +7786,76 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1">
         <v>1000</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7437,7 +7863,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>8054679</v>
@@ -7514,7 +7940,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>1154280</v>
@@ -7591,7 +8017,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>1268363</v>
@@ -7615,16 +8041,16 @@
         <v>19257</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1">
         <v>33947</v>
@@ -7639,25 +8065,25 @@
         <v>87000</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -7668,37 +8094,37 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1">
         <v>141488</v>
@@ -7734,10 +8160,10 @@
         <v>3736000</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7745,19 +8171,19 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1">
         <v>561165</v>
@@ -7822,7 +8248,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>33013</v>
@@ -7899,7 +8325,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>2455656</v>
@@ -7976,10 +8402,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>15486</v>
@@ -7988,7 +8414,7 @@
         <v>3655</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>76188</v>
@@ -8000,16 +8426,16 @@
         <v>11695</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1">
         <v>103283</v>
@@ -8024,22 +8450,22 @@
         <v>81000</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1">
         <v>16311000</v>
@@ -8053,31 +8479,31 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1">
         <v>4675089</v>
@@ -8130,7 +8556,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>19311</v>
@@ -8142,25 +8568,25 @@
         <v>40121</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1">
         <v>2264779</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1">
         <v>1982399</v>
@@ -8178,13 +8604,13 @@
         <v>1315000</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1">
         <v>354000</v>
@@ -8207,16 +8633,16 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>50979</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1">
         <v>607856</v>
@@ -8234,16 +8660,16 @@
         <v>6533045</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1">
         <v>2281840</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1">
         <v>376000</v>
@@ -8284,7 +8710,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>70290</v>
@@ -8361,76 +8787,76 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8438,7 +8864,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>2525946</v>
@@ -8515,7 +8941,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>27</v>
@@ -8592,7 +9018,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>515029</v>
@@ -8669,7 +9095,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-744179</v>
@@ -8746,7 +9172,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>5757856</v>
@@ -8823,7 +9249,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>5528733</v>
@@ -8900,7 +9326,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>8054679</v>
@@ -8977,76 +9403,76 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="21" x14ac:dyDescent="0.25">
@@ -9054,76 +9480,76 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9131,7 +9557,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>-473247</v>
@@ -9167,7 +9593,7 @@
         <v>-4384435</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O76" s="1">
         <v>14737742</v>
@@ -9208,7 +9634,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>124803</v>
@@ -9285,13 +9711,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-41329</v>
@@ -9362,34 +9788,34 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1">
         <v>4988837</v>
@@ -9436,102 +9862,102 @@
     </row>
     <row r="80" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Y80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:Y80" si="15">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.7853835472581895E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.2363674164157261E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.3748424627359434E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.9816331718696618E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.1487836553460394E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.3909740161069749E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.6701837365835911E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.4927025666834421E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.5404568962006758E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.208442442652142E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.1478638435745771</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.19614010510966912</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.35132925093324963</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.9228403232109316E-2</v>
       </c>
     </row>
@@ -9540,7 +9966,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>356910</v>
@@ -9617,34 +10043,34 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1">
         <v>1326309</v>
@@ -9677,16 +10103,16 @@
         <v>-67643000</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="21" x14ac:dyDescent="0.25">
@@ -9694,7 +10120,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1">
         <v>-63002</v>
@@ -9765,53 +10191,53 @@
       <c r="Y83" s="1">
         <v>-95987000</v>
       </c>
-      <c r="AF83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG83" s="62"/>
+      <c r="AF83" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG83" s="66"/>
     </row>
     <row r="84" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1">
         <v>2724450</v>
@@ -9846,35 +10272,35 @@
       <c r="Y84" s="1">
         <v>80757000</v>
       </c>
-      <c r="AF84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG84" s="64"/>
+      <c r="AF84" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG84" s="67"/>
     </row>
     <row r="85" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1">
         <v>199999</v>
@@ -9886,10 +10312,10 @@
         <v>2115699</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1">
         <v>296422</v>
@@ -9925,12 +10351,12 @@
         <v>175615000</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AF85" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG85" s="42">
         <f>Y17</f>
         <v>103265000</v>
       </c>
@@ -9940,10 +10366,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>151749</v>
@@ -10009,12 +10435,12 @@
         <v>-12221000</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AF86" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG86" s="42">
         <f>Y56</f>
         <v>0</v>
       </c>
@@ -10024,7 +10450,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>8466</v>
@@ -10095,10 +10521,10 @@
       <c r="Y87" s="10">
         <v>235361000</v>
       </c>
-      <c r="AF87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG87" s="24">
+      <c r="AF87" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG87" s="42">
         <f>Y61</f>
         <v>711110000</v>
       </c>
@@ -10108,7 +10534,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-99759</v>
@@ -10179,118 +10605,118 @@
       <c r="Y88" s="1">
         <v>-55802000</v>
       </c>
-      <c r="AF88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG88" s="34">
+      <c r="AF88" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG88" s="44">
         <f>AG85/(AG86+AG87)</f>
         <v>0.14521663315098929</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:Y89" si="16">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="16"/>
+        <v>2.9232378641630183E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="16"/>
+        <v>5.3717406809477286E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="16"/>
+        <v>3.8402983223129003E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="16"/>
+        <v>0.14929603174025513</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="16"/>
+        <v>0.16739088193815368</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="16"/>
+        <v>0.16379817906926633</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="16"/>
+        <v>3.05560493938297E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="16"/>
+        <v>4.4893359529900916E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="16"/>
+        <v>7.4209818915275255E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="16"/>
+        <v>0.13149133691620538</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="16"/>
+        <v>4.6286553785292513E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="16"/>
+        <v>2.0594536542924813E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="16"/>
+        <v>1.1624871937707322E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="16"/>
+        <v>1.2936131929682002E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="16"/>
+        <v>1.5225649597325634E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="16"/>
+        <v>3.0334728033472803E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="16"/>
+        <v>1.8479375198046561E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="16"/>
+        <v>3.0305586419932636E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="16"/>
+        <v>2.6517135320948036E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="16"/>
+        <v>3.0024865312888522E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="16"/>
+        <v>0.10665004412609048</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="16"/>
+        <v>5.7779821422987071E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="16"/>
+        <v>4.6894998466302781E-2</v>
+      </c>
+      <c r="AF89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:Y89" si="13">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="13"/>
-        <v>2.9232378641630183E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="13"/>
-        <v>5.3717406809477286E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.8402983223129003E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="13"/>
-        <v>0.14929603174025513</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="13"/>
-        <v>0.16739088193815368</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="13"/>
-        <v>0.16379817906926633</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.05560493938297E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.4893359529900916E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="13"/>
-        <v>7.4209818915275255E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="13"/>
-        <v>0.13149133691620538</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.6286553785292513E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="13"/>
-        <v>2.0594536542924813E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.1624871937707322E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.2936131929682002E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.5225649597325634E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.0334728033472803E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.8479375198046561E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.0305586419932636E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="13"/>
-        <v>2.6517135320948036E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.0024865312888522E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="13"/>
-        <v>0.10665004412609048</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="13"/>
-        <v>5.7779821422987071E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.6894998466302781E-2</v>
-      </c>
-      <c r="AF89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG89" s="24">
+      <c r="AG89" s="42">
         <f>Y27</f>
         <v>49379000</v>
       </c>
@@ -10300,52 +10726,52 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1">
         <v>-1258000</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1">
         <v>-11186000</v>
@@ -10360,7 +10786,7 @@
         <v>-4990000</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>-7068000</v>
@@ -10371,10 +10797,10 @@
       <c r="Y90" s="1">
         <v>-2104000</v>
       </c>
-      <c r="AF90" s="23" t="s">
+      <c r="AF90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AG90" s="24">
+      <c r="AG90" s="42">
         <f>Y25</f>
         <v>196518000</v>
       </c>
@@ -10384,19 +10810,19 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1">
         <v>-35273292</v>
@@ -10414,10 +10840,10 @@
         <v>-43887640</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1">
         <v>-11479493</v>
@@ -10455,10 +10881,10 @@
       <c r="Y91" s="1">
         <v>-863317000</v>
       </c>
-      <c r="AF91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG91" s="34">
+      <c r="AF91" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG91" s="44">
         <f>AG89/AG90</f>
         <v>0.25126960380219626</v>
       </c>
@@ -10468,22 +10894,22 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>95554648</v>
@@ -10501,7 +10927,7 @@
         <v>2500000</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1">
         <v>6000000</v>
@@ -10539,10 +10965,10 @@
       <c r="Y92" s="1">
         <v>72138000</v>
       </c>
-      <c r="AF92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG92" s="36">
+      <c r="AF92" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG92" s="44">
         <f>AG88*(1-AG91)</f>
         <v>0.10872810727365134</v>
       </c>
@@ -10552,10 +10978,10 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-85000</v>
@@ -10573,13 +10999,13 @@
         <v>-104066</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1">
         <v>-471698</v>
@@ -10623,17 +11049,17 @@
       <c r="Y93" s="1">
         <v>18118000</v>
       </c>
-      <c r="AF93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG93" s="64"/>
+      <c r="AF93" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG93" s="67"/>
     </row>
     <row r="94" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-99759</v>
@@ -10704,11 +11130,12 @@
       <c r="Y94" s="10">
         <v>-830967000</v>
       </c>
-      <c r="AF94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG94" s="37">
-        <v>4.095E-2</v>
+      <c r="AF94" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG94" s="45">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10716,43 +11143,43 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1">
         <v>-9736</v>
@@ -10773,24 +11200,24 @@
         <v>-34000</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG95" s="38" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AF95" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG95" s="46" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
         <v>0.90900000000000003</v>
       </c>
@@ -10800,7 +11227,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>187744</v>
@@ -10830,37 +11257,37 @@
         <v>342821</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1">
         <v>233993000</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1">
         <v>306779000</v>
@@ -10869,12 +11296,12 @@
         <v>105514000</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AF96" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10883,40 +11310,40 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-2208957</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-12499280</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1">
         <v>-32498856</v>
@@ -10937,29 +11364,29 @@
         <v>-33746000</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG97" s="36">
+        <v>91</v>
+      </c>
+      <c r="AF97" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG97" s="44">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>8.0082449999999999E-2</v>
+        <v>7.9915920000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -10967,88 +11394,88 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG98" s="67"/>
     </row>
     <row r="99" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>55052</v>
@@ -11075,7 +11502,7 @@
         <v>-45236</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1">
         <v>187203</v>
@@ -11119,10 +11546,10 @@
       <c r="Y99" s="1">
         <v>598100000</v>
       </c>
-      <c r="AF99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG99" s="24">
+      <c r="AF99" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG99" s="42">
         <f>AG86+AG87</f>
         <v>711110000</v>
       </c>
@@ -11132,7 +11559,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>242796</v>
@@ -11203,10 +11630,10 @@
       <c r="Y100" s="10">
         <v>598100000</v>
       </c>
-      <c r="AF100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG100" s="34">
+      <c r="AF100" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG100" s="44">
         <f>AG99/AG103</f>
         <v>4.6597758646105387E-2</v>
       </c>
@@ -11216,37 +11643,37 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1">
         <v>-10024</v>
@@ -11287,10 +11714,10 @@
       <c r="Y101" s="1">
         <v>-3380000</v>
       </c>
-      <c r="AF101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG101" s="39" cm="1">
+      <c r="AF101" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG101" s="47" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
         <v>14549495245</v>
       </c>
@@ -11300,7 +11727,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>151503</v>
@@ -11371,10 +11798,10 @@
       <c r="Y102" s="10">
         <v>-886000</v>
       </c>
-      <c r="AF102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG102" s="34">
+      <c r="AF102" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG102" s="44">
         <f>AG101/AG103</f>
         <v>0.95340224135389462</v>
       </c>
@@ -11384,7 +11811,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>54905</v>
@@ -11455,10 +11882,10 @@
       <c r="Y103" s="1">
         <v>356438000</v>
       </c>
-      <c r="AF103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG103" s="40">
+      <c r="AF103" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG103" s="48">
         <f>AG99+AG101</f>
         <v>15260605245</v>
       </c>
@@ -11468,7 +11895,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>206408</v>
@@ -11539,388 +11966,474 @@
       <c r="Y104" s="11">
         <v>355552000</v>
       </c>
-      <c r="AF104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG104" s="64"/>
+      <c r="AF104" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG104" s="67"/>
     </row>
     <row r="105" spans="1:33" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:X105" si="17">(B22*(1-$AG$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="17"/>
+        <v>346849.77537426597</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="17"/>
+        <v>-1011592.4591538688</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="17"/>
+        <v>-1376675.0909382347</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="17"/>
+        <v>-1518153.2342737047</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="17"/>
+        <v>9696305.804638762</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="17"/>
+        <v>-8763372.2162142918</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="17"/>
+        <v>4061680.6880591093</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="17"/>
+        <v>45996.589594848454</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="17"/>
+        <v>-4426663.3577229567</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="17"/>
+        <v>-9054125.980388565</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="17"/>
+        <v>-7606609.9447836839</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="17"/>
+        <v>933134.16004131921</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="17"/>
+        <v>22265800.705350146</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="17"/>
+        <v>32891517.112936221</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="17"/>
+        <v>32068481.528409611</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="17"/>
+        <v>43944388.549649402</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="17"/>
+        <v>14324811.849296249</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="17"/>
+        <v>-7386284.0503159985</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="17"/>
+        <v>20245211.771949645</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="17"/>
+        <v>-33963382.153288759</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="17"/>
+        <v>-171526535.10619891</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="17"/>
+        <v>-200353800.39996338</v>
+      </c>
+      <c r="Y105" s="1">
+        <f>(Y22*(1-$AG$91))+Y77+Y88+Y81</f>
+        <v>-26024644.363366202</v>
+      </c>
+      <c r="Z105" s="27">
+        <f>Y105*(1+$AG$106)</f>
+        <v>-30040291.2287663</v>
+      </c>
+      <c r="AA105" s="27">
+        <f t="shared" ref="AA105:AD105" si="18">Z105*(1+$AG$106)</f>
+        <v>-34675559.231825314</v>
+      </c>
+      <c r="AB105" s="27">
+        <f t="shared" si="18"/>
+        <v>-40026056.96739798</v>
+      </c>
+      <c r="AC105" s="27">
+        <f t="shared" si="18"/>
+        <v>-46202145.599053249</v>
+      </c>
+      <c r="AD105" s="27">
+        <f t="shared" si="18"/>
+        <v>-53331215.205505274</v>
+      </c>
+      <c r="AE105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF105" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>9.1105889827259485</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.31361521777284707</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-1.5900498226393216</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>25.531906417904608</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:W105" si="14">(H106/G106)-1</f>
-        <v>-1.3553133643604656</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="14"/>
-        <v>-1.8025234130959138</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.73683542498363086</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.8693777829262479</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="14"/>
-        <v>-4.3084049969054368</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="14"/>
-        <v>-7.1737505319883432E-2</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="14"/>
-        <v>-4.9770945141653113</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.65047923032979393</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.22484047583921374</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="14"/>
-        <v>7.9947229551451171E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.21979599315905207</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.76282516712150428</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.25609627361976139</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="14"/>
-        <v>6.4042855115652051</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="14"/>
-        <v>-5.4582391046034684E-2</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="14"/>
-        <v>-1.6971214271234543</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" ref="X105" si="15">(X106/W106)-1</f>
-        <v>-3.1581319608014189</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" ref="Y105" si="16">(Y106/X106)-1</f>
-        <v>1.419410908698933</v>
-      </c>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG105" s="26">
+      <c r="AG105" s="50">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>8.1417273423896652E-2</v>
+        <v>8.1258503348643998E-2</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-91293</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-923026</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-1212501</v>
-      </c>
-      <c r="F106" s="1">
-        <v>715436</v>
-      </c>
-      <c r="G106" s="1">
-        <v>18981881</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-6744516</v>
-      </c>
-      <c r="I106" s="1">
-        <v>5412632</v>
-      </c>
-      <c r="J106" s="1">
-        <v>9400851</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1227960</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-4062589</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-3771149</v>
-      </c>
-      <c r="N106" s="1">
-        <v>14998216</v>
-      </c>
-      <c r="O106" s="1">
-        <v>24754244</v>
-      </c>
-      <c r="P106" s="1">
-        <v>30320000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>32744000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>39941000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>9473000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>7047000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>52178000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>49330000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>-34389000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>74216000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>179559000</v>
-      </c>
-      <c r="Z106" s="41">
-        <f>Y106*(1+$AG$106)</f>
-        <v>208724240.47328538</v>
-      </c>
-      <c r="AA106" s="41">
-        <f t="shared" ref="AA106:AD106" si="17">Z106*(1+$AG$106)</f>
-        <v>242626705.21193513</v>
-      </c>
-      <c r="AB106" s="41">
-        <f t="shared" si="17"/>
-        <v>282035847.62611103</v>
-      </c>
-      <c r="AC106" s="41">
-        <f t="shared" si="17"/>
-        <v>327846101.18122327</v>
-      </c>
-      <c r="AD106" s="41">
-        <f t="shared" si="17"/>
-        <v>381097179.54086787</v>
-      </c>
-      <c r="AE106" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF106" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG106" s="44">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:Y106" si="19">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="19"/>
+        <v>9.1105889827259485</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="19"/>
+        <v>0.31361521777284707</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="19"/>
+        <v>-1.5900498226393216</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="19"/>
+        <v>25.531906417904608</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="19"/>
+        <v>-1.3553133643604656</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="19"/>
+        <v>-1.8025234130959138</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="19"/>
+        <v>0.73683542498363086</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="19"/>
+        <v>-0.8693777829262479</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="19"/>
+        <v>-4.3084049969054368</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="19"/>
+        <v>-7.1737505319883432E-2</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="19"/>
+        <v>-4.9770945141653113</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="19"/>
+        <v>0.65047923032979393</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="19"/>
+        <v>0.22484047583921374</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="19"/>
+        <v>7.9947229551451171E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="19"/>
+        <v>0.21979599315905207</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="19"/>
+        <v>-0.76282516712150428</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="19"/>
+        <v>-0.25609627361976139</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="19"/>
+        <v>6.4042855115652051</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="19"/>
+        <v>-5.4582391046034684E-2</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="19"/>
+        <v>-1.6971214271234543</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="19"/>
+        <v>-3.1581319608014189</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="19"/>
+        <v>1.419410908698933</v>
+      </c>
+      <c r="Z106" s="31">
+        <v>128400000</v>
+      </c>
+      <c r="AA106" s="31">
+        <v>189400000</v>
+      </c>
+      <c r="AB106" s="31">
+        <v>277000000</v>
+      </c>
+      <c r="AC106" s="31">
+        <v>368700000</v>
+      </c>
+      <c r="AD106" s="31">
+        <v>445100000</v>
+      </c>
+      <c r="AE106" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF106" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG106" s="52">
         <f>(SUM(Z4:AD4)/5)</f>
-        <v>0.16242706003756635</v>
+        <v>0.154301699932267</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="42"/>
-      <c r="AA107" s="42"/>
-      <c r="AB107" s="42"/>
-      <c r="AC107" s="42"/>
-      <c r="AD107" s="45">
+      <c r="A107" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-91293</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-923026</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-1212501</v>
+      </c>
+      <c r="F107" s="1">
+        <v>715436</v>
+      </c>
+      <c r="G107" s="1">
+        <v>18981881</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-6744516</v>
+      </c>
+      <c r="I107" s="1">
+        <v>5412632</v>
+      </c>
+      <c r="J107" s="1">
+        <v>9400851</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1227960</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-4062589</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-3771149</v>
+      </c>
+      <c r="N107" s="1">
+        <v>14998216</v>
+      </c>
+      <c r="O107" s="1">
+        <v>24754244</v>
+      </c>
+      <c r="P107" s="1">
+        <v>30320000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>32744000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>39941000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>9473000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>7047000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>52178000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>49330000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>-34389000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>74216000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>179559000</v>
+      </c>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="28"/>
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="62">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>6923847703.4222059</v>
-      </c>
-      <c r="AE107" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG107" s="48">
+        <v>8109485195.0233479</v>
+      </c>
+      <c r="AE107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF107" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG107" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z108" s="45">
-        <f t="shared" ref="Z108:AB108" si="18">Z107+Z106</f>
-        <v>208724240.47328538</v>
-      </c>
-      <c r="AA108" s="45">
-        <f t="shared" si="18"/>
-        <v>242626705.21193513</v>
-      </c>
-      <c r="AB108" s="45">
-        <f t="shared" si="18"/>
-        <v>282035847.62611103</v>
-      </c>
-      <c r="AC108" s="45">
+      <c r="Z108" s="62">
+        <f t="shared" ref="Z108:AB108" si="20">Z107+Z106</f>
+        <v>128400000</v>
+      </c>
+      <c r="AA108" s="62">
+        <f t="shared" si="20"/>
+        <v>189400000</v>
+      </c>
+      <c r="AB108" s="62">
+        <f t="shared" si="20"/>
+        <v>277000000</v>
+      </c>
+      <c r="AC108" s="62">
         <f>AC107+AC106</f>
-        <v>327846101.18122327</v>
-      </c>
-      <c r="AD108" s="45">
+        <v>368700000</v>
+      </c>
+      <c r="AD108" s="62">
         <f>AD107+AD106</f>
-        <v>7304944882.9630737</v>
-      </c>
-      <c r="AE108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF108" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG108" s="50">
+        <v>8554585195.0233479</v>
+      </c>
+      <c r="AE108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF108" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG108" s="52">
         <f>AG105</f>
-        <v>8.1417273423896652E-2</v>
+        <v>8.1258503348643998E-2</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA109" s="60"/>
+      <c r="Z109" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA109" s="64"/>
     </row>
     <row r="110" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA110" s="39">
+      <c r="Z110" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA110" s="47">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>5802333954.9594736</v>
+        <v>6557926564.2123327</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA111" s="39">
+      <c r="Z111" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA111" s="47">
         <f>Y40</f>
         <v>392924000</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA112" s="39">
+      <c r="Z112" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA112" s="47">
         <f>AG99</f>
         <v>711110000</v>
       </c>
     </row>
     <row r="113" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA113" s="39">
+      <c r="Z113" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA113" s="47">
         <f>AA110+AA111-AA112</f>
-        <v>5484147954.9594736</v>
+        <v>6239740564.2123327</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA114" s="52">
+      <c r="Z114" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA114" s="56">
         <f>Y34*(1+(5*AE16))</f>
         <v>94833119.366210282</v>
       </c>
     </row>
     <row r="115" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z115" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA115" s="54">
+      <c r="Z115" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA115" s="58">
         <f>AA113/AA114</f>
-        <v>57.829458649163811</v>
+        <v>65.797061257858374</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z116" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA116" s="55" cm="1">
+      <c r="Z116" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA116" s="59" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price")</f>
         <v>196.92</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z117" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA117" s="57">
+      <c r="Z117" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA117" s="60">
         <f>AA115/AA116-1</f>
-        <v>-0.70633019170646039</v>
+        <v>-0.66586907750427393</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA118" s="58" t="str">
+      <c r="Z118" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA118" s="61" t="str">
         <f>IF(AA115&gt;AA116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -11985,8 +12498,9 @@
     <hyperlink ref="Y36" r:id="rId48" tooltip="https://www.sec.gov/Archives/edgar/data/1069183/000155837023002413/0001558370-23-002413-index.htm" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="Y74" r:id="rId49" tooltip="https://www.sec.gov/Archives/edgar/data/1069183/000155837023002413/0001558370-23-002413-index.htm" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="Z1" r:id="rId50" display="https://finbox.com/NASDAQGS:AXON/explorer/revenue_proj" xr:uid="{ADD41393-FFAA-1B40-9740-C8FF58C911EB}"/>
+    <hyperlink ref="AE106" r:id="rId51" xr:uid="{780006D9-9DD9-0442-A611-21A9C83C5D8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId51"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Axon Enterprise.xlsx
+++ b/Technology/Hardware/Axon Enterprise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82367D48-5A1C-4149-9085-84CC65C774B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33558FB3-EF73-E348-8360-2B431424048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2495,32 +2495,25 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodity Stocks"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2536,7 +2529,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2663,10 +2655,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.95</v>
-    <v>86.325000000000003</v>
-    <v>0.90900000000000003</v>
-    <v>-0.62</v>
-    <v>-3.1390000000000003E-3</v>
+    <v>121.78</v>
+    <v>0.85709999999999997</v>
+    <v>-3.01</v>
+    <v>-1.3526E-2</v>
+    <v>-0.21</v>
+    <v>-9.5659999999999994E-4</v>
     <v>USD</v>
     <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
     <v>2821</v>
@@ -2674,24 +2668,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>17800 N 85th St, SCOTTSDALE, AZ, 85255-6311 US</v>
-    <v>198.59</v>
+    <v>223.12</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45099.991122430467</v>
+    <v>45217.949500346876</v>
     <v>0</v>
-    <v>194.3398</v>
-    <v>14549495245</v>
+    <v>219.41</v>
+    <v>16412060604</v>
     <v>AXON ENTERPRISE, INC.</v>
     <v>AXON ENTERPRISE, INC.</v>
-    <v>197</v>
-    <v>104.5745</v>
-    <v>197.54</v>
-    <v>196.92</v>
-    <v>73885310</v>
+    <v>222</v>
+    <v>163.59270000000001</v>
+    <v>222.54</v>
+    <v>219.53</v>
+    <v>219.32</v>
+    <v>74759990</v>
     <v>AXON</v>
     <v>AXON ENTERPRISE, INC. (XNAS:AXON)</v>
-    <v>66</v>
-    <v>985384</v>
+    <v>327086</v>
+    <v>467559</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -2723,6 +2718,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2743,6 +2740,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2759,7 +2757,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2770,13 +2768,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2842,13 +2843,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2893,6 +2900,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2900,6 +2910,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3261,10 +3274,10 @@
   <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE102" sqref="AE102"/>
+      <selection pane="bottomRight" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4769,15 +4782,15 @@
       </c>
       <c r="AF16" s="32">
         <f>AG101/Y3</f>
-        <v>12.227134461126028</v>
+        <v>13.792400932824062</v>
       </c>
       <c r="AG16" s="32">
         <f>AG101/Y28</f>
-        <v>98.882656841490018</v>
+        <v>111.54119984504449</v>
       </c>
       <c r="AH16" s="33">
         <f>AG101/Y107</f>
-        <v>81.029050312153672</v>
+        <v>91.402049487912052</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -5043,15 +5056,15 @@
       </c>
       <c r="AF19" s="32">
         <f>AG101/Z3</f>
-        <v>9.9996530893470794</v>
+        <v>11.27976673814433</v>
       </c>
       <c r="AG19" s="32">
         <f>AG101/Z28</f>
-        <v>62.821654771157171</v>
+        <v>70.86381953367875</v>
       </c>
       <c r="AH19" s="33">
         <f>AG101/Z106</f>
-        <v>113.31382589563863</v>
+        <v>127.81978663551402</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5356,7 +5369,7 @@
       </c>
       <c r="AH22" s="35">
         <f>Y107/AG101</f>
-        <v>1.2341252873477261E-2</v>
+        <v>1.0940673711394735E-2</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11133,9 +11146,9 @@
       <c r="AF94" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="AG94" s="45">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+      <c r="AG94" s="45" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11219,7 +11232,7 @@
       </c>
       <c r="AG95" s="46" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
-        <v>0.90900000000000003</v>
+        <v>0.85709999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11384,9 +11397,9 @@
       <c r="AF97" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="AG97" s="44">
+      <c r="AG97" s="44" t="e">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>7.9915920000000001E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11635,7 +11648,7 @@
       </c>
       <c r="AG100" s="44">
         <f>AG99/AG103</f>
-        <v>4.6597758646105387E-2</v>
+        <v>4.1529107923148505E-2</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11719,7 +11732,7 @@
       </c>
       <c r="AG101" s="47" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14549495245</v>
+        <v>16412060604</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11803,7 +11816,7 @@
       </c>
       <c r="AG102" s="44">
         <f>AG101/AG103</f>
-        <v>0.95340224135389462</v>
+        <v>0.95847089207685154</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11887,7 +11900,7 @@
       </c>
       <c r="AG103" s="48">
         <f>AG99+AG101</f>
-        <v>15260605245</v>
+        <v>17123170604</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12097,9 +12110,9 @@
       <c r="AF105" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="AG105" s="50">
+      <c r="AG105" s="50" t="e">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>8.1258503348643998E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -12203,16 +12216,16 @@
         <v>128400000</v>
       </c>
       <c r="AA106" s="31">
-        <v>189400000</v>
+        <v>204000000</v>
       </c>
       <c r="AB106" s="31">
         <v>277000000</v>
       </c>
       <c r="AC106" s="31">
-        <v>368700000</v>
+        <v>395000000</v>
       </c>
       <c r="AD106" s="31">
-        <v>445100000</v>
+        <v>474100000</v>
       </c>
       <c r="AE106" s="28" t="s">
         <v>161</v>
@@ -12305,9 +12318,9 @@
       <c r="AA107" s="28"/>
       <c r="AB107" s="28"/>
       <c r="AC107" s="28"/>
-      <c r="AD107" s="62">
+      <c r="AD107" s="62" t="e">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>8109485195.0233479</v>
+        <v>#REF!</v>
       </c>
       <c r="AE107" s="29" t="s">
         <v>146</v>
@@ -12326,7 +12339,7 @@
       </c>
       <c r="AA108" s="62">
         <f t="shared" si="20"/>
-        <v>189400000</v>
+        <v>204000000</v>
       </c>
       <c r="AB108" s="62">
         <f t="shared" si="20"/>
@@ -12334,11 +12347,11 @@
       </c>
       <c r="AC108" s="62">
         <f>AC107+AC106</f>
-        <v>368700000</v>
-      </c>
-      <c r="AD108" s="62">
+        <v>395000000</v>
+      </c>
+      <c r="AD108" s="62" t="e">
         <f>AD107+AD106</f>
-        <v>8554585195.0233479</v>
+        <v>#REF!</v>
       </c>
       <c r="AE108" s="29" t="s">
         <v>143</v>
@@ -12346,9 +12359,9 @@
       <c r="AF108" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="AG108" s="52">
+      <c r="AG108" s="52" t="e">
         <f>AG105</f>
-        <v>8.1258503348643998E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -12361,9 +12374,9 @@
       <c r="Z110" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="AA110" s="47">
+      <c r="AA110" s="47" t="e">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>6557926564.2123327</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -12388,9 +12401,9 @@
       <c r="Z113" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="AA113" s="47">
+      <c r="AA113" s="47" t="e">
         <f>AA110+AA111-AA112</f>
-        <v>6239740564.2123327</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -12406,9 +12419,9 @@
       <c r="Z115" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="AA115" s="58">
+      <c r="AA115" s="58" t="e">
         <f>AA113/AA114</f>
-        <v>65.797061257858374</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -12417,25 +12430,25 @@
       </c>
       <c r="AA116" s="59" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price")</f>
-        <v>196.92</v>
+        <v>219.53</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
       <c r="Z117" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AA117" s="60">
+      <c r="AA117" s="60" t="e">
         <f>AA115/AA116-1</f>
-        <v>-0.66586907750427393</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">
       <c r="Z118" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="AA118" s="61" t="str">
+      <c r="AA118" s="61" t="e">
         <f>IF(AA115&gt;AA116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Hardware/Axon Enterprise.xlsx
+++ b/Technology/Hardware/Axon Enterprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BBC1EA-F7A9-1D4A-9508-FA558B64E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D4AD7D-C2FA-1647-ADDF-E5E992E40F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1443,9 +1443,6 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1515,9 +1512,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1531,10 +1525,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1569,13 +1563,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1592,7 +1583,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9530000000000005E-2</v>
+            <v>4.5579999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1604,9 +1595,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1733,12 +1721,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.95</v>
-    <v>136.52500000000001</v>
-    <v>0.84609999999999996</v>
-    <v>-3.8149999999999999</v>
-    <v>-1.8648999999999999E-2</v>
-    <v>-0.245</v>
-    <v>-1.2199999999999999E-3</v>
+    <v>144.82</v>
+    <v>0.86580000000000001</v>
+    <v>6.98</v>
+    <v>3.3195000000000002E-2</v>
     <v>USD</v>
     <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
     <v>2821</v>
@@ -1746,25 +1732,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>17800 N 85th St, SCOTTSDALE, AZ, 85255-6311 US</v>
-    <v>205.89</v>
+    <v>219.36</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45226.999716897655</v>
+    <v>45233.998994606249</v>
     <v>0</v>
-    <v>199.29</v>
-    <v>15008441792</v>
+    <v>211.97</v>
+    <v>16241610000</v>
     <v>AXON ENTERPRISE, INC.</v>
     <v>AXON ENTERPRISE, INC.</v>
-    <v>204.68</v>
-    <v>152.44460000000001</v>
-    <v>204.57</v>
-    <v>200.755</v>
-    <v>200.51</v>
+    <v>211.97</v>
+    <v>161.8937</v>
+    <v>210.27</v>
+    <v>217.25</v>
     <v>74759990</v>
     <v>AXON</v>
     <v>AXON ENTERPRISE, INC. (XNAS:AXON)</v>
-    <v>422820</v>
-    <v>410694</v>
+    <v>5</v>
+    <v>397437</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -1796,8 +1781,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1818,7 +1801,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1835,7 +1817,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1846,16 +1828,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1921,19 +1900,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1978,9 +1951,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1988,9 +1958,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -15695,7 +15662,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15703,48 +15670,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="e" vm="1">
+    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-    </row>
-    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>15008441792</v>
+        <v>16241610000</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>201</v>
@@ -15772,7 +15739,7 @@
       </c>
       <c r="I3" s="46">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>9310711721.3683338</v>
+        <v>9279170643.9944019</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>205</v>
@@ -15780,10 +15747,10 @@
       <c r="K3" s="47"/>
       <c r="L3" s="48"/>
       <c r="M3" s="49"/>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="120"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15817,23 +15784,23 @@
       </c>
       <c r="I4" s="56">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>7548360280.1544065</v>
+        <v>7520700071.1480093</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="45" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.8648999999999999E-2</v>
+        <v>3.3195000000000002E-2</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="49"/>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="122"/>
+      <c r="O4" s="120"/>
       <c r="P4" s="49"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15867,14 +15834,14 @@
       </c>
       <c r="I5" s="56">
         <f>I4+G5-G6</f>
-        <v>7972800280.1544075</v>
+        <v>7945140071.1480103</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="58" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>200.755</v>
+        <v>217.25</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>219</v>
@@ -15892,7 +15859,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61">
         <f>O20/F10</f>
-        <v>9.8416011750819674</v>
+        <v>10.65023606557377</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>221</v>
@@ -15920,14 +15887,14 @@
       </c>
       <c r="I6" s="63">
         <f>N25</f>
-        <v>7.8172626842670845E-2</v>
+        <v>7.8353367342200872E-2</v>
       </c>
       <c r="J6" s="55" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>85.027266355837497</v>
+        <v>84.732279415740777</v>
       </c>
       <c r="L6" s="65" t="s">
         <v>225</v>
@@ -15945,14 +15912,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="68">
         <f>O20/F12</f>
-        <v>56.001648477611937</v>
+        <v>60.603022388059699</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="70">
         <f>F14/O21</f>
-        <v>7.8254495722433412E-3</v>
+        <v>7.2561598455322847E-3</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>228</v>
@@ -15977,9 +15944,9 @@
       <c r="J7" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="110">
         <f>K6/K5-1</f>
-        <v>-0.57646252219950933</v>
+        <v>-0.60997800038784455</v>
       </c>
       <c r="L7" s="77" t="s">
         <v>231</v>
@@ -16136,7 +16103,7 @@
         <f t="shared" si="0"/>
         <v>7.5020955574182757E-2</v>
       </c>
-      <c r="K11" s="94">
+      <c r="K11" s="93">
         <f>SUM(F11:J11)/5</f>
         <v>0.16805625149264386</v>
       </c>
@@ -16145,7 +16112,7 @@
       <c r="N11" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="95">
+      <c r="O11" s="94">
         <f>O9/O10</f>
         <v>-0.1581715731640172</v>
       </c>
@@ -16187,10 +16154,10 @@
       </c>
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="97">
+      <c r="O12" s="96">
         <f>O8*(1-O11)</f>
         <v>6.7121242157463623E-2</v>
       </c>
@@ -16231,16 +16198,16 @@
         <f t="shared" si="1"/>
         <v>0.13747645951035792</v>
       </c>
-      <c r="K13" s="94">
+      <c r="K13" s="93">
         <f>SUM(F13:J13)/5</f>
         <v>0.34958422550878043</v>
       </c>
       <c r="L13" s="86"/>
       <c r="M13" s="86"/>
-      <c r="N13" s="121" t="s">
+      <c r="N13" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="122"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="49"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16282,14 +16249,14 @@
       <c r="N14" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9530000000000005E-2</v>
+        <v>4.5579999999999996E-2</v>
       </c>
       <c r="P14" s="49"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="92"/>
       <c r="C15" s="92">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
@@ -16323,7 +16290,7 @@
         <f t="shared" si="2"/>
         <v>0.1955445544554455</v>
       </c>
-      <c r="K15" s="94">
+      <c r="K15" s="93">
         <f>SUM(F15:J15)/5</f>
         <v>0.27124256869321278</v>
       </c>
@@ -16332,9 +16299,9 @@
       <c r="N15" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="99" cm="1">
+      <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.84609999999999996</v>
+        <v>0.86580000000000001</v>
       </c>
       <c r="P15" s="49"/>
     </row>
@@ -16342,40 +16309,40 @@
       <c r="A16" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="100">
+      <c r="B16" s="99">
         <v>-8.8234482377942767E-3</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="99">
         <v>-1.0870622941751899E-2</v>
       </c>
-      <c r="D16" s="100">
+      <c r="D16" s="99">
         <v>-0.11803196513303048</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="99">
         <v>3.5330225636378242E-2</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
       <c r="L16" s="86"/>
       <c r="M16" s="86"/>
       <c r="N16" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="95">
+      <c r="O16" s="94">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="49"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="86"/>
       <c r="G17" s="86"/>
       <c r="H17" s="86"/>
@@ -16384,12 +16351,12 @@
       <c r="K17" s="86"/>
       <c r="L17" s="86"/>
       <c r="M17" s="86"/>
-      <c r="N17" s="105" t="s">
+      <c r="N17" s="104" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="106">
+      <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.8695067000000007E-2</v>
+        <v>7.8844036000000006E-2</v>
       </c>
       <c r="P17" s="49"/>
     </row>
@@ -16407,24 +16374,24 @@
       <c r="K18" s="86"/>
       <c r="L18" s="86"/>
       <c r="M18" s="86"/>
-      <c r="N18" s="121" t="s">
+      <c r="N18" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="122"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="49"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="str" cm="1">
+      <c r="A19" s="121" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="124" cm="1">
+      <c r="B19" s="121"/>
+      <c r="C19" s="122" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2001</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="107"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="86"/>
       <c r="G19" s="86"/>
       <c r="H19" s="86"/>
@@ -16436,21 +16403,21 @@
       <c r="N19" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="108">
+      <c r="O19" s="107">
         <f>O6+O7</f>
         <v>709505000</v>
       </c>
       <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="str" cm="1">
+      <c r="A20" s="121" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="86"/>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -16462,18 +16429,18 @@
       <c r="N20" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="108" cm="1">
+      <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>15008441792</v>
+        <v>16241610000</v>
       </c>
       <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="86"/>
       <c r="G21" s="86"/>
       <c r="H21" s="86"/>
@@ -16484,18 +16451,18 @@
       <c r="N21" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="108">
+      <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>15717946792</v>
+        <v>16951115000</v>
       </c>
       <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="86"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
@@ -16507,18 +16474,18 @@
       <c r="N22" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="109">
+      <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>4.5139801615890339E-2</v>
+        <v>4.1855948708978734E-2</v>
       </c>
       <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="86"/>
       <c r="G23" s="86"/>
       <c r="H23" s="86"/>
@@ -16527,21 +16494,21 @@
       <c r="K23" s="86"/>
       <c r="L23" s="86"/>
       <c r="M23" s="86"/>
-      <c r="N23" s="105" t="s">
+      <c r="N23" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="110">
+      <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.95486019838410963</v>
+        <v>0.95814405129102131</v>
       </c>
       <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
@@ -16550,18 +16517,18 @@
       <c r="K24" s="86"/>
       <c r="L24" s="86"/>
       <c r="M24" s="86"/>
-      <c r="N24" s="112" t="s">
+      <c r="N24" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="113"/>
+      <c r="O24" s="112"/>
       <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="118"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="86"/>
       <c r="G25" s="86"/>
       <c r="H25" s="86"/>
@@ -16570,19 +16537,19 @@
       <c r="K25" s="86"/>
       <c r="L25" s="86"/>
       <c r="M25" s="86"/>
-      <c r="N25" s="114">
+      <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.8172626842670845E-2</v>
-      </c>
-      <c r="O25" s="115"/>
+        <v>7.8353367342200872E-2</v>
+      </c>
+      <c r="O25" s="114"/>
       <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="118"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="86"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
@@ -16596,11 +16563,11 @@
       <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="118"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="86"/>
       <c r="G27" s="86"/>
       <c r="H27" s="86"/>

--- a/Technology/Hardware/Axon Enterprise.xlsx
+++ b/Technology/Hardware/Axon Enterprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D4AD7D-C2FA-1647-ADDF-E5E992E40F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93B2390-F54D-4643-843F-86EA6892850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1239,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1290,245 +1456,258 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1583,7 +1762,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5579999999999996E-2</v>
+            <v>4.6280000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1720,11 +1899,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>229.95</v>
-    <v>144.82</v>
-    <v>0.86580000000000001</v>
-    <v>6.98</v>
-    <v>3.3195000000000002E-2</v>
+    <v>231.71</v>
+    <v>162.38999999999999</v>
+    <v>0.86499999999999999</v>
+    <v>2.92</v>
+    <v>1.3354E-2</v>
+    <v>-0.77</v>
+    <v>-3.4749999999999998E-3</v>
     <v>USD</v>
     <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
     <v>2821</v>
@@ -1732,24 +1913,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>17800 N 85th St, SCOTTSDALE, AZ, 85255-6311 US</v>
-    <v>219.36</v>
+    <v>223.57</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45233.998994606249</v>
+    <v>45245.04096428203</v>
     <v>0</v>
-    <v>211.97</v>
-    <v>16241610000</v>
+    <v>220.51</v>
+    <v>16603838051</v>
     <v>AXON ENTERPRISE, INC.</v>
     <v>AXON ENTERPRISE, INC.</v>
-    <v>211.97</v>
-    <v>161.8937</v>
-    <v>210.27</v>
-    <v>217.25</v>
-    <v>74759990</v>
+    <v>221.36</v>
+    <v>111.7499</v>
+    <v>218.66</v>
+    <v>221.58</v>
+    <v>220.81</v>
+    <v>74933830</v>
     <v>AXON</v>
     <v>AXON ENTERPRISE, INC. (XNAS:AXON)</v>
-    <v>5</v>
-    <v>397437</v>
+    <v>586710</v>
+    <v>504437</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -1781,6 +1963,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1801,6 +1985,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1817,7 +2002,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1828,13 +2013,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1900,13 +2088,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1951,6 +2145,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1958,6 +2155,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2343,9 +2543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
+    <sheetView topLeftCell="A150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S190" sqref="A190:S190"/>
+      <selection pane="topRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12565,8 +12765,8 @@
       <c r="N172" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O172" s="4" t="s">
-        <v>24</v>
+      <c r="O172" s="4">
+        <v>0</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>24</v>
@@ -15652,1754 +15852,1904 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A4:S7 A15:S16 A19:S33 A37:S95 A2:S2 A9:S11 A13:S13 A97:S104 A96:G96 A191:S195 A105:G105 M105:S105 A106:S128 A130:S142 A144:S186 A188:I188 P188:Q188 A187:L187 N187:S187 N188 K188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A4:S7 A15:S16 A19:S33 A37:S95 A2:S2 A9:S11 A13:S13 A97:S104 A96:G96 A191:S195 A105:G105 M105:S105 A106:S128 A130:S142 A144:S171 A188:I188 P188:Q188 A187:L187 N187:S187 N188 K188 A173:S186 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DE82AB-3769-214A-924D-BEDEE191ACB9}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:18" s="106" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" cm="1">
+    </row>
+    <row r="2" spans="1:18" s="106" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>16241610000</v>
-      </c>
-      <c r="B3" s="42" t="s">
+        <v>16603838051</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="78">
         <f>Financials!O8*0.01</f>
         <v>0.61160000000000003</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="78">
         <f>SUM(C11:E11)/3</f>
         <v>0.30962155536291669</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="80">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>5.0849609614888436E-2</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="46">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>9279170643.9944019</v>
-      </c>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="81">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>9266766525.5885773</v>
+      </c>
+      <c r="J3" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="117" t="s">
+      <c r="K3" s="83">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" s="41"/>
+      <c r="N3" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
+      <c r="O3" s="108"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="85">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>424440000</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="43">
         <f>Financials!O17*0.01</f>
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="43">
         <f>SUM(C13:E13)/3</f>
         <v>9.1356651132061888</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="88">
         <f>A5*(1+(5*G3))</f>
-        <v>93767571.531564817</v>
-      </c>
-      <c r="H4" s="55" t="s">
+        <v>93985610.012242079</v>
+      </c>
+      <c r="H4" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="56">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>7520700071.1480093</v>
-      </c>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="42">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>7509822548.4943752</v>
+      </c>
+      <c r="J4" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="45" cm="1">
+      <c r="K4" s="89" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.3195000000000002E-2</v>
-      </c>
-      <c r="L4" s="44" t="s">
+        <v>1.3354E-2</v>
+      </c>
+      <c r="L4" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="119" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="49"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" cm="1">
+      <c r="O4" s="110"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>74759990</v>
-      </c>
-      <c r="B5" s="51" t="s">
+        <v>74933830</v>
+      </c>
+      <c r="B5" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="43">
         <f>Financials!O34*0.01</f>
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="52">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="43">
+        <f>SUM(C16:E16)/3</f>
         <v>-1.146659684516512</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="88">
         <f>Financials!O56</f>
         <v>1133945000</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="42">
         <f>I4+G5-G6</f>
-        <v>7945140071.1480103</v>
-      </c>
-      <c r="J5" s="53" t="s">
+        <v>7934262548.4943752</v>
+      </c>
+      <c r="J5" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="58" cm="1">
+      <c r="K5" s="92" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>217.25</v>
-      </c>
-      <c r="L5" s="51" t="s">
+        <v>221.58</v>
+      </c>
+      <c r="L5" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="59" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="112">
         <f>Financials!O21</f>
         <v>41119000</v>
       </c>
-      <c r="P5" s="49"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="94">
         <f>O20/F10</f>
-        <v>10.65023606557377</v>
-      </c>
-      <c r="B6" s="51" t="s">
+        <v>10.887762656393443</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="43">
         <f>Financials!O190</f>
         <v>8.0816875911724553E-2</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="43">
         <f>Financials!O33/Financials!O126</f>
         <v>6.8418779818380376E-2</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="88">
         <f>Financials!O96+Financials!O105</f>
         <v>709505000</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="89">
         <f>N25</f>
-        <v>7.8353367342200872E-2</v>
-      </c>
-      <c r="J6" s="55" t="s">
+        <v>7.8424783999136674E-2</v>
+      </c>
+      <c r="J6" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="44">
         <f>I5/G4</f>
-        <v>84.732279415740777</v>
-      </c>
-      <c r="L6" s="65" t="s">
+        <v>84.419971817610161</v>
+      </c>
+      <c r="L6" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="66" t="s">
+      <c r="M6" s="41"/>
+      <c r="N6" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="112">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="49"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68">
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="96">
         <f>O20/F12</f>
-        <v>60.603022388059699</v>
-      </c>
-      <c r="B7" s="69" t="s">
+        <v>61.954619593283581</v>
+      </c>
+      <c r="B7" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="70">
-        <f>F14/O21</f>
-        <v>7.2561598455322847E-3</v>
-      </c>
-      <c r="D7" s="71" t="s">
+      <c r="C7" s="98">
+        <f>F15/O21</f>
+        <v>7.1043471868880723E-3</v>
+      </c>
+      <c r="D7" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="99">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>3.8819277578169997E-2</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="100">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.49100760001051902</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="102">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="110">
+      <c r="K7" s="104">
         <f>K6/K5-1</f>
-        <v>-0.60997800038784455</v>
-      </c>
-      <c r="L7" s="77" t="s">
+        <v>-0.61900906301286152</v>
+      </c>
+      <c r="L7" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="66" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="112">
         <f>Financials!O105</f>
         <v>709505000</v>
       </c>
-      <c r="P7" s="49"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="79" t="s">
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="80">
+      <c r="O8" s="114">
         <f>O5/(O6+O7)</f>
         <v>5.7954489397537723E-2</v>
       </c>
-      <c r="P8" s="49"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82">
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57">
         <v>2019</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="57">
         <v>2020</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="57">
         <v>2021</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="58">
         <v>2022</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="59">
         <v>2023</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="60">
         <v>2024</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="60">
         <v>2025</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="60">
         <v>2026</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="61">
         <v>2027</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="66" t="s">
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="112">
         <f>Financials!O25</f>
         <v>-13502000</v>
       </c>
-      <c r="P9" s="49"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="63">
         <v>530860000</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="63">
         <v>681003000</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="63">
         <v>863381000</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="64">
         <v>1189935000</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="63">
         <v>1525000000</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="63">
         <v>1813000000</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="63">
         <v>2121000000</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="63">
         <v>2386000000</v>
       </c>
-      <c r="J10" s="88">
+      <c r="J10" s="64">
         <v>2565000000</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="66" t="s">
+      <c r="L10" s="46"/>
+      <c r="N10" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="112">
         <f>Financials!O24</f>
         <v>85363000</v>
       </c>
-      <c r="P10" s="49"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92">
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.28282974795614657</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="47">
         <f t="shared" si="0"/>
         <v>0.26780792448785107</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="47">
         <f t="shared" si="0"/>
         <v>0.37822699364475243</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="48">
         <f t="shared" si="0"/>
         <v>0.28158260745334829</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="47">
         <f t="shared" si="0"/>
         <v>0.18885245901639336</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>0.16988416988416999</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="47">
         <f t="shared" si="0"/>
         <v>0.12494106553512485</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="67">
         <f t="shared" si="0"/>
         <v>7.5020955574182757E-2</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="67">
         <f>SUM(F11:J11)/5</f>
         <v>0.16805625149264386</v>
       </c>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="66" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="94">
+      <c r="O11" s="115">
         <f>O9/O10</f>
         <v>-0.1581715731640172</v>
       </c>
-      <c r="P11" s="49"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="63">
         <v>882000</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="63">
         <v>-1724000</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="63">
         <v>-60018000</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="63">
         <v>147139000</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="68">
         <v>268000000</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="63">
         <v>290000000</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="63">
         <v>401000000</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="63">
         <v>531000000</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="64">
         <v>604000000</v>
       </c>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="95" t="s">
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="96">
+      <c r="O12" s="115">
         <f>O8*(1-O11)</f>
         <v>6.7121242157463623E-2</v>
       </c>
-      <c r="P12" s="49"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92">
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-2.9546485260770976</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="47">
         <f t="shared" si="1"/>
         <v>33.81322505800464</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="47">
         <f t="shared" si="1"/>
         <v>-3.4515811923089741</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="48">
         <f t="shared" si="1"/>
         <v>0.82140696892054454</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="47">
         <f t="shared" si="1"/>
         <v>8.2089552238805874E-2</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="47">
         <f t="shared" si="1"/>
         <v>0.38275862068965516</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I13" s="47">
         <f t="shared" si="1"/>
         <v>0.32418952618453867</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="67">
         <f t="shared" si="1"/>
         <v>0.13747645951035792</v>
       </c>
-      <c r="K13" s="93">
+      <c r="K13" s="67">
         <f>SUM(F13:J13)/5</f>
         <v>0.34958422550878043</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="119" t="s">
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="120"/>
-      <c r="P13" s="49"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+      <c r="O13" s="110"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="53">
+        <f>B12/B10</f>
+        <v>1.6614549975511434E-3</v>
+      </c>
+      <c r="C14" s="53">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-2.5315600665488992E-3</v>
+      </c>
+      <c r="D14" s="53">
+        <f t="shared" si="2"/>
+        <v>-6.9515080827583647E-2</v>
+      </c>
+      <c r="E14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.12365297264136277</v>
+      </c>
+      <c r="F14" s="54">
+        <f t="shared" si="2"/>
+        <v>0.17573770491803278</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.15995587424158852</v>
+      </c>
+      <c r="H14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.18906176331918906</v>
+      </c>
+      <c r="I14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.2225481978206203</v>
+      </c>
+      <c r="J14" s="55">
+        <f t="shared" si="2"/>
+        <v>0.2354775828460039</v>
+      </c>
+      <c r="K14" s="55"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="115">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.6280000000000002E-2</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B15" s="63">
         <v>49330000</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C15" s="63">
         <v>-34389000</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D15" s="63">
         <v>74216000</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E15" s="63">
         <v>179252000</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F15" s="68">
         <v>123000000</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G15" s="63">
         <v>203000000</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H15" s="63">
         <v>299000000</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I15" s="63">
         <v>404000000</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J15" s="64">
         <v>483000000</v>
       </c>
-      <c r="K14" s="90" t="s">
+      <c r="K15" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="94">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5579999999999996E-2</v>
-      </c>
-      <c r="P14" s="49"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="116" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="70"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-1.6971214271234543</v>
       </c>
-      <c r="D15" s="92">
-        <f t="shared" si="2"/>
+      <c r="D16" s="47">
+        <f t="shared" si="3"/>
         <v>-3.1581319608014189</v>
       </c>
-      <c r="E15" s="92">
-        <f t="shared" si="2"/>
+      <c r="E16" s="47">
+        <f t="shared" si="3"/>
         <v>1.4152743343753369</v>
       </c>
-      <c r="F15" s="93">
-        <f t="shared" si="2"/>
+      <c r="F16" s="48">
+        <f t="shared" si="3"/>
         <v>-0.31381518755718207</v>
       </c>
-      <c r="G15" s="92">
-        <f t="shared" si="2"/>
+      <c r="G16" s="47">
+        <f t="shared" si="3"/>
         <v>0.65040650406504064</v>
       </c>
-      <c r="H15" s="92">
-        <f t="shared" si="2"/>
+      <c r="H16" s="47">
+        <f t="shared" si="3"/>
         <v>0.47290640394088679</v>
       </c>
-      <c r="I15" s="92">
-        <f t="shared" si="2"/>
+      <c r="I16" s="47">
+        <f t="shared" si="3"/>
         <v>0.3511705685618729</v>
       </c>
-      <c r="J15" s="92">
-        <f t="shared" si="2"/>
+      <c r="J16" s="67">
+        <f t="shared" si="3"/>
         <v>0.1955445544554455</v>
       </c>
-      <c r="K15" s="93">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="67">
+        <f>SUM(F16:J16)/5</f>
         <v>0.27124256869321278</v>
       </c>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="98" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.86580000000000001</v>
-      </c>
-      <c r="P15" s="49"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="115">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="53">
+        <f>B15/B10</f>
+        <v>9.2924688241720982E-2</v>
+      </c>
+      <c r="C17" s="53">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>-5.0497574900551095E-2</v>
+      </c>
+      <c r="D17" s="53">
+        <f t="shared" si="4"/>
+        <v>8.5959732725181578E-2</v>
+      </c>
+      <c r="E17" s="55">
+        <f t="shared" si="4"/>
+        <v>0.15064016101719843</v>
+      </c>
+      <c r="F17" s="53">
+        <f t="shared" si="4"/>
+        <v>8.0655737704918032E-2</v>
+      </c>
+      <c r="G17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.11196911196911197</v>
+      </c>
+      <c r="H17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.14097123998114097</v>
+      </c>
+      <c r="I17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.16932103939647947</v>
+      </c>
+      <c r="J17" s="55">
+        <f t="shared" si="4"/>
+        <v>0.18830409356725147</v>
+      </c>
+      <c r="K17" s="55"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="117" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="118">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>7.89078E-2</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B18" s="72">
         <v>-8.8234482377942767E-3</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C18" s="72">
         <v>-1.0870622941751899E-2</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D18" s="72">
         <v>-0.11803196513303048</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E18" s="72">
         <v>3.5330225636378242E-2</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="94">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="104" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="105">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.8844036000000006E-2</v>
-      </c>
-      <c r="P17" s="49"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="119" t="s">
+      <c r="F18" s="73"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="109" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="49"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Aerospace &amp; Defense</v>
-      </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2001</v>
-      </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="66" t="s">
+      <c r="O18" s="110"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="119">
         <f>O6+O7</f>
         <v>709505000</v>
       </c>
-      <c r="P19" s="49"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="121" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="119" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>16603838051</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Aerospace &amp; Defense</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2001</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="119">
+        <f>O19+O20</f>
+        <v>17313343051</v>
+      </c>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="107" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>16241610000</v>
-      </c>
-      <c r="P20" s="49"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="107">
-        <f>O19+O20</f>
-        <v>16951115000</v>
-      </c>
-      <c r="P21" s="49"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="79" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="120">
         <f>(O19/O21)</f>
-        <v>4.1855948708978734E-2</v>
-      </c>
-      <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="104" t="s">
+        <v>4.098024268969936E-2</v>
+      </c>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="109">
+      <c r="O23" s="121">
         <f>O20/O21</f>
-        <v>0.95814405129102131</v>
-      </c>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="111" t="s">
+        <v>0.95901975731030065</v>
+      </c>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="122" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="113">
+      <c r="O24" s="123"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="124">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.8353367342200872E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="86"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="86"/>
-      <c r="O48" s="86"/>
-      <c r="P48" s="86"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="86"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="86"/>
-      <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="86"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="86"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="86"/>
-      <c r="P56" s="86"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="86"/>
-      <c r="O57" s="86"/>
-      <c r="P57" s="86"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
-      <c r="N58" s="86"/>
-      <c r="O58" s="86"/>
-      <c r="P58" s="86"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="86"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
-      <c r="P59" s="86"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
-      <c r="L60" s="86"/>
-      <c r="M60" s="86"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
-      <c r="P60" s="86"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="86"/>
-      <c r="O61" s="86"/>
-      <c r="P61" s="86"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
+        <v>7.8424783999136674E-2</v>
+      </c>
+      <c r="O25" s="125"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="49"/>
-      <c r="P81" s="49"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="49"/>
-      <c r="P82" s="49"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="49"/>
-      <c r="P83" s="49"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="49"/>
-      <c r="P85" s="49"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="49"/>
-      <c r="P86" s="49"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="49"/>
-      <c r="P87" s="49"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="49"/>
-      <c r="P88" s="49"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="49"/>
-      <c r="P89" s="49"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="49"/>
-      <c r="P90" s="49"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="49"/>
-      <c r="P91" s="49"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="49"/>
-      <c r="P92" s="49"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="49"/>
-      <c r="P93" s="49"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="49"/>
-      <c r="P94" s="49"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="49"/>
-      <c r="P95" s="49"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="49"/>
-      <c r="P96" s="49"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="49"/>
-      <c r="P97" s="49"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="41"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="49"/>
-      <c r="P98" s="49"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="49"/>
-      <c r="P100" s="49"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="49"/>
-      <c r="P101" s="49"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="49"/>
-      <c r="P102" s="49"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="49"/>
-      <c r="P103" s="49"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="49"/>
-      <c r="P104" s="49"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="49"/>
-      <c r="P105" s="49"/>
+      <c r="O105" s="41"/>
+      <c r="P105" s="41"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="49"/>
-      <c r="P106" s="49"/>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="49"/>
-      <c r="P107" s="49"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="49"/>
-      <c r="P108" s="49"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="49"/>
-      <c r="P109" s="49"/>
+      <c r="O109" s="41"/>
+      <c r="P109" s="41"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="49"/>
-      <c r="P110" s="49"/>
+      <c r="O110" s="41"/>
+      <c r="P110" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:AXON/explorer/revenue_proj" xr:uid="{81934C0A-B137-454E-BAB7-6F219E4E6AB2}"/>

--- a/Technology/Hardware/Axon Enterprise.xlsx
+++ b/Technology/Hardware/Axon Enterprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93B2390-F54D-4643-843F-86EA6892850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEE9F50-7823-284F-9E5D-B4B473217D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1480,12 +1480,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1649,21 +1643,6 @@
     <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1709,6 +1688,30 @@
     <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,6 +1748,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1762,7 +1766,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6280000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1774,6 +1778,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1899,13 +1904,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>231.71</v>
+    <v>233.8</v>
     <v>162.38999999999999</v>
-    <v>0.86499999999999999</v>
-    <v>2.92</v>
-    <v>1.3354E-2</v>
-    <v>-0.77</v>
-    <v>-3.4749999999999998E-3</v>
+    <v>0.91210000000000002</v>
+    <v>1.64</v>
+    <v>7.1340000000000006E-3</v>
+    <v>3.13</v>
+    <v>1.3520000000000001E-2</v>
     <v>USD</v>
     <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
     <v>2821</v>
@@ -1913,25 +1918,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>17800 N 85th St, SCOTTSDALE, AZ, 85255-6311 US</v>
-    <v>223.57</v>
+    <v>233.8</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45245.04096428203</v>
+    <v>45262.015740126561</v>
     <v>0</v>
-    <v>220.51</v>
-    <v>16603838051</v>
+    <v>226.553</v>
+    <v>17347930983</v>
     <v>AXON ENTERPRISE, INC.</v>
     <v>AXON ENTERPRISE, INC.</v>
-    <v>221.36</v>
-    <v>111.7499</v>
-    <v>218.66</v>
-    <v>221.58</v>
-    <v>220.81</v>
+    <v>229.87</v>
+    <v>117.479</v>
+    <v>229.87</v>
+    <v>231.51</v>
+    <v>234.64</v>
     <v>74933830</v>
     <v>AXON</v>
     <v>AXON ENTERPRISE, INC. (XNAS:AXON)</v>
-    <v>586710</v>
-    <v>504437</v>
+    <v>850416</v>
+    <v>488058</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -2096,9 +2101,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2543,9 +2548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O173" sqref="O173"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10249,7 +10254,10 @@
         <f>(O128/N128)-1</f>
         <v>4.6008286498384621E-2</v>
       </c>
-      <c r="P129" s="11"/>
+      <c r="P129" s="11">
+        <f>(P128/O128)-1</f>
+        <v>-4.8303757296857652E-2</v>
+      </c>
       <c r="Q129" s="11">
         <f>(Q128/P128)-1</f>
         <v>4.5383474484856912E-3</v>
@@ -15862,7 +15870,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15870,164 +15878,164 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="106" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="e" vm="1">
+    <row r="1" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="106" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" cm="1">
+      <c r="A3" s="74" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>16603838051</v>
-      </c>
-      <c r="B3" s="77" t="s">
+        <v>17347930983</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="76">
         <f>Financials!O8*0.01</f>
         <v>0.61160000000000003</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="76">
         <f>SUM(C11:E11)/3</f>
         <v>0.30962155536291669</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="80">
-        <f>SUM(Financials!K129:N129)/4</f>
-        <v>5.0849609614888436E-2</v>
-      </c>
-      <c r="H3" s="79" t="s">
+      <c r="G3" s="78">
+        <f>AVERAGE(Financials!N129:S129)</f>
+        <v>9.3326674754322658E-3</v>
+      </c>
+      <c r="H3" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="79">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>9266766525.5885773</v>
-      </c>
-      <c r="J3" s="82" t="s">
+        <v>9025976558.2934475</v>
+      </c>
+      <c r="J3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="81">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="82" t="s">
         <v>251</v>
       </c>
       <c r="M3" s="41"/>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="108"/>
+      <c r="O3" s="121"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85">
+      <c r="A4" s="83">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>424440000</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="84" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="43">
         <f>Financials!O17*0.01</f>
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="84" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="43">
         <f>SUM(C13:E13)/3</f>
         <v>9.1356651132061888</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="86">
         <f>A5*(1+(5*G3))</f>
-        <v>93985610.012242079</v>
-      </c>
-      <c r="H4" s="87" t="s">
+        <v>78430492.590252861</v>
+      </c>
+      <c r="H4" s="85" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="42">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>7509822548.4943752</v>
-      </c>
-      <c r="J4" s="87" t="s">
+        <v>7298709779.6477966</v>
+      </c>
+      <c r="J4" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="89" cm="1">
+      <c r="K4" s="87" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.3354E-2</v>
-      </c>
-      <c r="L4" s="90" t="s">
+        <v>7.1340000000000006E-3</v>
+      </c>
+      <c r="L4" s="88" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="41"/>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="110"/>
+      <c r="O4" s="123"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" cm="1">
+      <c r="A5" s="83" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>74933830</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="84" t="s">
         <v>214</v>
       </c>
       <c r="C5" s="43">
         <f>Financials!O34*0.01</f>
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="89" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="43">
         <f>SUM(C16:E16)/3</f>
         <v>-1.146659684516512</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="86">
         <f>Financials!O56</f>
         <v>1133945000</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="85" t="s">
         <v>217</v>
       </c>
       <c r="I5" s="42">
         <f>I4+G5-G6</f>
-        <v>7934262548.4943752</v>
-      </c>
-      <c r="J5" s="87" t="s">
+        <v>7723149779.6477966</v>
+      </c>
+      <c r="J5" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="92" cm="1">
+      <c r="K5" s="90" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>221.58</v>
-      </c>
-      <c r="L5" s="93" t="s">
+        <v>231.51</v>
+      </c>
+      <c r="L5" s="91" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="41"/>
-      <c r="N5" s="111" t="s">
+      <c r="N5" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="112">
+      <c r="O5" s="105">
         <f>Financials!O21</f>
         <v>41119000</v>
       </c>
@@ -16036,53 +16044,53 @@
       <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94">
+      <c r="A6" s="92">
         <f>O20/F10</f>
-        <v>10.887762656393443</v>
-      </c>
-      <c r="B6" s="86" t="s">
+        <v>11.375692447868852</v>
+      </c>
+      <c r="B6" s="84" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="43">
         <f>Financials!O190</f>
         <v>8.0816875911724553E-2</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="89" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="43">
         <f>Financials!O33/Financials!O126</f>
         <v>6.8418779818380376E-2</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="86">
         <f>Financials!O96+Financials!O105</f>
         <v>709505000</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="89">
+      <c r="I6" s="87">
         <f>N25</f>
-        <v>7.8424783999136674E-2</v>
-      </c>
-      <c r="J6" s="87" t="s">
+        <v>7.9850020582548947E-2</v>
+      </c>
+      <c r="J6" s="85" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="44">
         <f>I5/G4</f>
-        <v>84.419971817610161</v>
-      </c>
-      <c r="L6" s="95" t="s">
+        <v>98.471264486328238</v>
+      </c>
+      <c r="L6" s="93" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="41"/>
-      <c r="N6" s="111" t="s">
+      <c r="N6" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="112">
+      <c r="O6" s="105">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
@@ -16091,52 +16099,52 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96">
+      <c r="A7" s="94">
         <f>O20/F12</f>
-        <v>61.954619593283581</v>
-      </c>
-      <c r="B7" s="97" t="s">
+        <v>64.731085757462694</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="96">
         <f>F15/O21</f>
-        <v>7.1043471868880723E-3</v>
-      </c>
-      <c r="D7" s="97" t="s">
+        <v>6.8115982864786102E-3</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="97">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>3.8819277578169997E-2</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="98">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.49100760001051902</v>
       </c>
-      <c r="H7" s="101" t="s">
+      <c r="H7" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="102">
+      <c r="I7" s="100">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="103" t="s">
+      <c r="J7" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="102">
         <f>K6/K5-1</f>
-        <v>-0.61900906301286152</v>
-      </c>
-      <c r="L7" s="105" t="s">
+        <v>-0.57465653973336683</v>
+      </c>
+      <c r="L7" s="103" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="41"/>
-      <c r="N7" s="111" t="s">
+      <c r="N7" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="112">
+      <c r="O7" s="105">
         <f>Financials!O105</f>
         <v>709505000</v>
       </c>
@@ -16158,10 +16166,10 @@
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
-      <c r="N8" s="113" t="s">
+      <c r="N8" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="114">
+      <c r="O8" s="107">
         <f>O5/(O6+O7)</f>
         <v>5.7954489397537723E-2</v>
       </c>
@@ -16170,41 +16178,41 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55">
         <v>2019</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>2020</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="55">
         <v>2021</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="56">
         <v>2022</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="57">
         <v>2023</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="58">
         <v>2024</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="58">
         <v>2025</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="58">
         <v>2026</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="59">
         <v>2027</v>
       </c>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
-      <c r="N9" s="111" t="s">
+      <c r="N9" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="112">
+      <c r="O9" s="105">
         <f>Financials!O25</f>
         <v>-13502000</v>
       </c>
@@ -16213,44 +16221,44 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="61">
         <v>530860000</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="61">
         <v>681003000</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="61">
         <v>863381000</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="62">
         <v>1189935000</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="61">
         <v>1525000000</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="61">
         <v>1813000000</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="61">
         <v>2121000000</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="61">
         <v>2386000000</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="62">
         <v>2565000000</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="63" t="s">
         <v>235</v>
       </c>
       <c r="L10" s="46"/>
-      <c r="N10" s="111" t="s">
+      <c r="N10" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="112">
+      <c r="O10" s="105">
         <f>Financials!O24</f>
         <v>85363000</v>
       </c>
@@ -16259,7 +16267,7 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -16289,20 +16297,20 @@
         <f t="shared" si="0"/>
         <v>0.12494106553512485</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="65">
         <f t="shared" si="0"/>
         <v>7.5020955574182757E-2</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="65">
         <f>SUM(F11:J11)/5</f>
         <v>0.16805625149264386</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
-      <c r="N11" s="111" t="s">
+      <c r="N11" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="115">
+      <c r="O11" s="108">
         <f>O9/O10</f>
         <v>-0.1581715731640172</v>
       </c>
@@ -16311,45 +16319,45 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="61">
         <v>882000</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="61">
         <v>-1724000</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="61">
         <v>-60018000</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="61">
         <v>147139000</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="66">
         <v>268000000</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="61">
         <v>290000000</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="61">
         <v>401000000</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="61">
         <v>531000000</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="62">
         <v>604000000</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="67" t="s">
         <v>238</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
-      <c r="N12" s="111" t="s">
+      <c r="N12" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="115">
+      <c r="O12" s="108">
         <f>O8*(1-O11)</f>
         <v>6.7121242157463623E-2</v>
       </c>
@@ -16358,7 +16366,7 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -16388,127 +16396,127 @@
         <f t="shared" si="1"/>
         <v>0.32418952618453867</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="65">
         <f t="shared" si="1"/>
         <v>0.13747645951035792</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="65">
         <f>SUM(F13:J13)/5</f>
         <v>0.34958422550878043</v>
       </c>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
-      <c r="N13" s="109" t="s">
+      <c r="N13" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="110"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="51">
         <f>B12/B10</f>
         <v>1.6614549975511434E-3</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-2.5315600665488992E-3</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="51">
         <f t="shared" si="2"/>
         <v>-6.9515080827583647E-2</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="51">
         <f t="shared" si="2"/>
         <v>0.12365297264136277</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="52">
         <f t="shared" si="2"/>
         <v>0.17573770491803278</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="51">
         <f t="shared" si="2"/>
         <v>0.15995587424158852</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="51">
         <f t="shared" si="2"/>
         <v>0.18906176331918906</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="51">
         <f t="shared" si="2"/>
         <v>0.2225481978206203</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="53">
         <f t="shared" si="2"/>
         <v>0.2354775828460039</v>
       </c>
-      <c r="K14" s="55"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="111" t="s">
+      <c r="N14" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="115">
+      <c r="O14" s="108">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6280000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="61">
         <v>49330000</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="61">
         <v>-34389000</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="61">
         <v>74216000</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="61">
         <v>179252000</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="66">
         <v>123000000</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="61">
         <v>203000000</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="61">
         <v>299000000</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="61">
         <v>404000000</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="62">
         <v>483000000</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="67" t="s">
         <v>241</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
-      <c r="N15" s="111" t="s">
+      <c r="N15" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="116" cm="1">
+      <c r="O15" s="109" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.86499999999999999</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="P15" s="41"/>
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -16538,20 +16546,20 @@
         <f t="shared" si="3"/>
         <v>0.3511705685618729</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="65">
         <f t="shared" si="3"/>
         <v>0.1955445544554455</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="65">
         <f>SUM(F16:J16)/5</f>
         <v>0.27124256869321278</v>
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="46"/>
-      <c r="N16" s="111" t="s">
+      <c r="N16" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="115">
+      <c r="O16" s="108">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="41"/>
@@ -16559,87 +16567,87 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="51">
         <f>B15/B10</f>
         <v>9.2924688241720982E-2</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="51">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-5.0497574900551095E-2</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="51">
         <f t="shared" si="4"/>
         <v>8.5959732725181578E-2</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="53">
         <f t="shared" si="4"/>
         <v>0.15064016101719843</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="51">
         <f t="shared" si="4"/>
         <v>8.0655737704918032E-2</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="51">
         <f t="shared" si="4"/>
         <v>0.11196911196911197</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="51">
         <f t="shared" si="4"/>
         <v>0.14097123998114097</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="51">
         <f t="shared" si="4"/>
         <v>0.16932103939647947</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="53">
         <f t="shared" si="4"/>
         <v>0.18830409356725147</v>
       </c>
-      <c r="K17" s="55"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="117" t="s">
+      <c r="N17" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="118">
+      <c r="O17" s="111">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.89078E-2</v>
+        <v>8.037060900000001E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="70">
         <v>-8.8234482377942767E-3</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="70">
         <v>-1.0870622941751899E-2</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="70">
         <v>-0.11803196513303048</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="70">
         <v>3.5330225636378242E-2</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="75"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
-      <c r="N18" s="109" t="s">
+      <c r="N18" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="110"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -16658,10 +16666,10 @@
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
       <c r="M19" s="46"/>
-      <c r="N19" s="111" t="s">
+      <c r="N19" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="119">
+      <c r="O19" s="112">
         <f>O6+O7</f>
         <v>709505000</v>
       </c>
@@ -16683,28 +16691,28 @@
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="111" t="s">
+      <c r="N20" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="119" cm="1">
+      <c r="O20" s="112" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>16603838051</v>
+        <v>17347930983</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="str" cm="1">
+      <c r="A21" s="125" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51" cm="1">
+      <c r="B21" s="125"/>
+      <c r="C21" s="126" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2001</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="49"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
@@ -16713,26 +16721,26 @@
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="111" t="s">
+      <c r="N21" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="119">
+      <c r="O21" s="112">
         <f>O19+O20</f>
-        <v>17313343051</v>
+        <v>18057435983</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="str" cm="1">
+      <c r="A22" s="124" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
@@ -16741,23 +16749,23 @@
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="113" t="s">
+      <c r="N22" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="120">
+      <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>4.098024268969936E-2</v>
+        <v>3.9291569449170782E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
@@ -16766,23 +16774,23 @@
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="117" t="s">
+      <c r="N23" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="121">
+      <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.95901975731030065</v>
+        <v>0.96070843055082922</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -16791,20 +16799,20 @@
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="122" t="s">
+      <c r="N24" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="123"/>
+      <c r="O24" s="116"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
@@ -16813,21 +16821,21 @@
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="124">
+      <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.8424783999136674E-2</v>
-      </c>
-      <c r="O25" s="125"/>
+        <v>7.9850020582548947E-2</v>
+      </c>
+      <c r="O25" s="118"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
@@ -16843,11 +16851,11 @@
       <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
@@ -16863,11 +16871,11 @@
       <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
@@ -16883,11 +16891,11 @@
       <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
@@ -16903,11 +16911,11 @@
       <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>

--- a/Technology/Hardware/Axon Enterprise.xlsx
+++ b/Technology/Hardware/Axon Enterprise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEE9F50-7823-284F-9E5D-B4B473217D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961805FD-AC6C-2249-8C60-8D3E42A3954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1703,14 +1703,14 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1747,6 +1747,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1766,7 +1768,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1779,6 +1781,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1904,13 +1908,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>233.8</v>
+    <v>238.04</v>
     <v>162.38999999999999</v>
-    <v>0.91210000000000002</v>
-    <v>1.64</v>
-    <v>7.1340000000000006E-3</v>
-    <v>3.13</v>
-    <v>1.3520000000000001E-2</v>
+    <v>0.91159999999999997</v>
+    <v>1.05</v>
+    <v>4.4619999999999998E-3</v>
+    <v>0.12</v>
+    <v>5.0770000000000003E-4</v>
     <v>USD</v>
     <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
     <v>2821</v>
@@ -1918,25 +1922,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>17800 N 85th St, SCOTTSDALE, AZ, 85255-6311 US</v>
-    <v>233.8</v>
+    <v>238.04</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45262.015740126561</v>
+    <v>45268.990977592184</v>
     <v>0</v>
-    <v>226.553</v>
-    <v>17347930983</v>
+    <v>234.83</v>
+    <v>17712858735</v>
     <v>AXON ENTERPRISE, INC.</v>
     <v>AXON ENTERPRISE, INC.</v>
-    <v>229.87</v>
-    <v>117.479</v>
-    <v>229.87</v>
-    <v>231.51</v>
-    <v>234.64</v>
+    <v>235.41</v>
+    <v>120.2694</v>
+    <v>235.33</v>
+    <v>236.38</v>
+    <v>236.5</v>
     <v>74933830</v>
     <v>AXON</v>
     <v>AXON ENTERPRISE, INC. (XNAS:AXON)</v>
-    <v>850416</v>
-    <v>488058</v>
+    <v>281805</v>
+    <v>509587</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -2101,9 +2105,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15887,7 +15891,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>17347930983</v>
+        <v>17712858735</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>201</v>
@@ -15915,7 +15919,7 @@
       </c>
       <c r="I3" s="79">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>9025976558.2934475</v>
+        <v>9048582453.5890331</v>
       </c>
       <c r="J3" s="80" t="s">
         <v>205</v>
@@ -15967,14 +15971,14 @@
       </c>
       <c r="I4" s="42">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>7298709779.6477966</v>
+        <v>7318525973.0137129</v>
       </c>
       <c r="J4" s="85" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="87" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.1340000000000006E-3</v>
+        <v>4.4619999999999998E-3</v>
       </c>
       <c r="L4" s="88" t="s">
         <v>212</v>
@@ -16019,14 +16023,14 @@
       </c>
       <c r="I5" s="42">
         <f>I4+G5-G6</f>
-        <v>7723149779.6477966</v>
+        <v>7742965973.0137129</v>
       </c>
       <c r="J5" s="85" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="90" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>231.51</v>
+        <v>236.38</v>
       </c>
       <c r="L5" s="91" t="s">
         <v>219</v>
@@ -16046,7 +16050,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92">
         <f>O20/F10</f>
-        <v>11.375692447868852</v>
+        <v>11.61498933442623</v>
       </c>
       <c r="B6" s="84" t="s">
         <v>221</v>
@@ -16074,14 +16078,14 @@
       </c>
       <c r="I6" s="87">
         <f>N25</f>
-        <v>7.9850020582548947E-2</v>
+        <v>7.9712989856619273E-2</v>
       </c>
       <c r="J6" s="85" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="44">
         <f>I5/G4</f>
-        <v>98.471264486328238</v>
+        <v>98.723923786448182</v>
       </c>
       <c r="L6" s="93" t="s">
         <v>225</v>
@@ -16101,14 +16105,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="94">
         <f>O20/F12</f>
-        <v>64.731085757462694</v>
+        <v>66.092756473880598</v>
       </c>
       <c r="B7" s="95" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="96">
         <f>F15/O21</f>
-        <v>6.8115982864786102E-3</v>
+        <v>6.6766676507595294E-3</v>
       </c>
       <c r="D7" s="95" t="s">
         <v>228</v>
@@ -16135,7 +16139,7 @@
       </c>
       <c r="K7" s="102">
         <f>K6/K5-1</f>
-        <v>-0.57465653973336683</v>
+        <v>-0.58235077508059829</v>
       </c>
       <c r="L7" s="103" t="s">
         <v>231</v>
@@ -16462,7 +16466,7 @@
       </c>
       <c r="O14" s="108">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -16509,7 +16513,7 @@
       </c>
       <c r="O15" s="109" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.91210000000000002</v>
+        <v>0.91159999999999997</v>
       </c>
       <c r="P15" s="41"/>
       <c r="Q15" s="41"/>
@@ -16614,7 +16618,7 @@
       </c>
       <c r="O17" s="111">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.037060900000001E-2</v>
+        <v>8.0217364000000013E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -16696,23 +16700,23 @@
       </c>
       <c r="O20" s="112" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>17347930983</v>
+        <v>17712858735</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="125" t="str" cm="1">
+      <c r="A21" s="124" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="126" cm="1">
+      <c r="B21" s="124"/>
+      <c r="C21" s="125" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2001</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="49"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
@@ -16726,21 +16730,21 @@
       </c>
       <c r="O21" s="112">
         <f>O19+O20</f>
-        <v>18057435983</v>
+        <v>18422363735</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="124" t="str" cm="1">
+      <c r="A22" s="126" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Axon Enterprise, Inc. integrates a suite of hardware devices and cloud software solutions. The Company's three product categories include TASER, sensors and software. It develops smart devices tools, TASER, which is a device, virtual reality training services and consumer devices. Its sensor products include Axon body cameras, Axon Fleet in-car systems, and other devices that work with its software. It builds a suite of cloud-based, software-as-a-service solutions that integrate with its sensors and TASER devices. The Company operates through two segments: Software and Sensors, and TASER. Software segment develops, manufactures and sells fully integrated hardware and cloud-based software solutions that enable law enforcement to capture, securely store, manage, share and analyze video and other digital evidence. TASER segment is engaged in the development, manufacturing and selling of conducted energy devices (CEDs), which the Company sells under its brand name, TASER.</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
@@ -16754,18 +16758,18 @@
       </c>
       <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>3.9291569449170782E-2</v>
+        <v>3.8513244565464552E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
@@ -16779,18 +16783,18 @@
       </c>
       <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.96070843055082922</v>
+        <v>0.96148675543453543</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -16808,11 +16812,11 @@
       <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
@@ -16823,7 +16827,7 @@
       <c r="M25" s="46"/>
       <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.9850020582548947E-2</v>
+        <v>7.9712989856619273E-2</v>
       </c>
       <c r="O25" s="118"/>
       <c r="P25" s="41"/>
@@ -16831,11 +16835,11 @@
       <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
@@ -16851,11 +16855,11 @@
       <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
@@ -16871,11 +16875,11 @@
       <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
@@ -16891,11 +16895,11 @@
       <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
@@ -16911,11 +16915,11 @@
       <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
